--- a/runnig example.xlsx
+++ b/runnig example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\Professional\PhD\PaperForECML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\GitHub\nsLGL-based-LPCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68518EC9-B7F7-4029-8592-E8DB6DA44BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2821AF15-EBF6-410D-A1A4-09FBD7A6F5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{522E04DE-09B8-4124-99DE-56A1D788C5A5}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="12735" xr2:uid="{522E04DE-09B8-4124-99DE-56A1D788C5A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -186,11 +183,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,7 +508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531650C0-766F-4E2F-BC45-94E22C2072EF}">
   <dimension ref="A1:AM70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -517,52 +519,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="U1" s="15" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="U1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AC1" s="16" t="s">
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AC1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AD1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AF1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AH1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C2">
@@ -583,10 +584,10 @@
       <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="N2">
@@ -645,7 +646,7 @@
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3">
@@ -675,8 +676,8 @@
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+      <c r="K3" s="7"/>
+      <c r="L3" s="17">
         <v>1</v>
       </c>
       <c r="M3">
@@ -700,7 +701,7 @@
       <c r="S3" s="2">
         <v>0</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="17">
         <v>1</v>
       </c>
       <c r="U3">
@@ -771,7 +772,7 @@
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="17"/>
       <c r="B4">
         <v>2</v>
       </c>
@@ -799,8 +800,8 @@
       <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="17"/>
       <c r="M4">
         <v>2</v>
       </c>
@@ -823,7 +824,7 @@
       <c r="S4" s="2">
         <v>0</v>
       </c>
-      <c r="T4" s="7"/>
+      <c r="T4" s="17"/>
       <c r="U4">
         <v>2</v>
       </c>
@@ -889,7 +890,7 @@
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="17"/>
       <c r="B5">
         <v>3</v>
       </c>
@@ -917,8 +918,8 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="17"/>
       <c r="M5">
         <v>3</v>
       </c>
@@ -942,7 +943,7 @@
       <c r="S5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" s="7"/>
+      <c r="T5" s="17"/>
       <c r="U5">
         <v>3</v>
       </c>
@@ -1008,7 +1009,7 @@
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="17"/>
       <c r="B6">
         <v>4</v>
       </c>
@@ -1039,8 +1040,8 @@
       <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="17"/>
       <c r="M6">
         <v>4</v>
       </c>
@@ -1065,7 +1066,7 @@
       <c r="S6" s="2">
         <v>1</v>
       </c>
-      <c r="T6" s="7"/>
+      <c r="T6" s="17"/>
       <c r="U6">
         <v>4</v>
       </c>
@@ -1131,7 +1132,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="17"/>
       <c r="B7">
         <v>5</v>
       </c>
@@ -1162,8 +1163,8 @@
       <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="17"/>
       <c r="M7">
         <v>5</v>
       </c>
@@ -1189,7 +1190,7 @@
       <c r="S7" s="2">
         <v>1</v>
       </c>
-      <c r="T7" s="7"/>
+      <c r="T7" s="17"/>
       <c r="U7">
         <v>5</v>
       </c>
@@ -1255,7 +1256,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="17"/>
       <c r="B8">
         <v>6</v>
       </c>
@@ -1286,8 +1287,8 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="17"/>
       <c r="M8">
         <v>6</v>
       </c>
@@ -1314,7 +1315,7 @@
       <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="7"/>
+      <c r="T8" s="17"/>
       <c r="U8">
         <v>6</v>
       </c>
@@ -1381,7 +1382,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2">
@@ -1408,32 +1409,32 @@
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="4"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="9"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="8"/>
       <c r="T9" s="4"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="9"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="8"/>
       <c r="AC9" s="5"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="2">
@@ -1460,28 +1461,28 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="4"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="8"/>
       <c r="T10" s="4"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="9"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="8"/>
       <c r="AC10" s="5"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AC11" s="5">
@@ -1515,7 +1516,7 @@
       <c r="H12">
         <v>6</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>1</v>
       </c>
       <c r="N12">
@@ -1582,7 +1583,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="17">
         <v>2</v>
       </c>
       <c r="B13">
@@ -1609,9 +1610,9 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="7">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="17">
         <v>2</v>
       </c>
       <c r="M13">
@@ -1635,7 +1636,7 @@
       <c r="S13" s="2">
         <v>1</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="17">
         <v>2</v>
       </c>
       <c r="U13">
@@ -1706,7 +1707,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="17"/>
       <c r="B14">
         <v>2</v>
       </c>
@@ -1731,9 +1732,9 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="17"/>
       <c r="M14">
         <v>2</v>
       </c>
@@ -1756,7 +1757,7 @@
       <c r="S14" s="2">
         <v>1</v>
       </c>
-      <c r="T14" s="7"/>
+      <c r="T14" s="17"/>
       <c r="U14">
         <v>2</v>
       </c>
@@ -1822,7 +1823,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="17"/>
       <c r="B15">
         <v>3</v>
       </c>
@@ -1847,9 +1848,9 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="17"/>
       <c r="M15">
         <v>3</v>
       </c>
@@ -1873,7 +1874,7 @@
       <c r="S15" s="2">
         <v>1</v>
       </c>
-      <c r="T15" s="7"/>
+      <c r="T15" s="17"/>
       <c r="U15">
         <v>3</v>
       </c>
@@ -1939,7 +1940,7 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="17"/>
       <c r="B16">
         <v>4</v>
       </c>
@@ -1967,9 +1968,9 @@
       <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="17"/>
       <c r="M16">
         <v>4</v>
       </c>
@@ -1994,7 +1995,7 @@
       <c r="S16" s="2">
         <v>1</v>
       </c>
-      <c r="T16" s="7"/>
+      <c r="T16" s="17"/>
       <c r="U16">
         <v>4</v>
       </c>
@@ -2060,7 +2061,7 @@
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="17"/>
       <c r="B17">
         <v>5</v>
       </c>
@@ -2088,9 +2089,9 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="17"/>
       <c r="M17">
         <v>5</v>
       </c>
@@ -2116,7 +2117,7 @@
       <c r="S17" s="2">
         <v>1</v>
       </c>
-      <c r="T17" s="7"/>
+      <c r="T17" s="17"/>
       <c r="U17">
         <v>5</v>
       </c>
@@ -2182,37 +2183,37 @@
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="17"/>
       <c r="B18">
         <v>6</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <f>H13</f>
         <v>0</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <f>H14</f>
         <v>0</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <f>H15</f>
         <v>0</v>
       </c>
-      <c r="F18" s="12">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="7"/>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="17"/>
       <c r="M18">
         <v>6</v>
       </c>
@@ -2239,7 +2240,7 @@
       <c r="S18" s="1">
         <v>0</v>
       </c>
-      <c r="T18" s="7"/>
+      <c r="T18" s="17"/>
       <c r="U18">
         <v>6</v>
       </c>
@@ -2306,7 +2307,7 @@
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="2">
@@ -2330,28 +2331,28 @@
       <c r="I19" s="1">
         <v>0</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="4"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="8"/>
       <c r="T19" s="4"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="9"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="8"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AC20">
@@ -2385,10 +2386,10 @@
       <c r="H21">
         <v>6</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="11" t="s">
+      <c r="I21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>2</v>
       </c>
       <c r="N21">
@@ -2455,7 +2456,7 @@
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="17">
         <v>3</v>
       </c>
       <c r="B22">
@@ -2485,8 +2486,8 @@
       <c r="J22" s="2">
         <v>0</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="7">
+      <c r="K22" s="7"/>
+      <c r="L22" s="17">
         <v>3</v>
       </c>
       <c r="M22">
@@ -2510,7 +2511,7 @@
       <c r="S22" s="2">
         <v>0</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="17">
         <v>3</v>
       </c>
       <c r="U22">
@@ -2540,7 +2541,7 @@
         <v>0.2376655893183256</v>
       </c>
       <c r="AC22">
-        <f>AE22/$AE$31</f>
+        <f t="shared" ref="AC22:AC27" si="18">AE22/$AE$31</f>
         <v>8.7432284184107131E-2</v>
       </c>
       <c r="AD22">
@@ -2564,24 +2565,24 @@
         <v>1</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" ref="AJ22:AJ23" si="18">ROUND(X22,0)</f>
+        <f t="shared" ref="AJ22:AJ23" si="19">ROUND(X22,0)</f>
         <v>1</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" ref="AK22:AK24" si="19">ROUND(Y22,0)</f>
+        <f t="shared" ref="AK22:AK24" si="20">ROUND(Y22,0)</f>
         <v>0</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" ref="AL22:AL25" si="20">ROUND(Z22,0)</f>
+        <f t="shared" ref="AL22:AL25" si="21">ROUND(Z22,0)</f>
         <v>0</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" ref="AM22:AM26" si="21">ROUND(AA22,0)</f>
+        <f t="shared" ref="AM22:AM26" si="22">ROUND(AA22,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="17"/>
       <c r="B23">
         <v>2</v>
       </c>
@@ -2609,8 +2610,8 @@
       <c r="J23" s="2">
         <v>0</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="17"/>
       <c r="M23">
         <v>2</v>
       </c>
@@ -2633,7 +2634,7 @@
       <c r="S23" s="2">
         <v>0</v>
       </c>
-      <c r="T23" s="7"/>
+      <c r="T23" s="17"/>
       <c r="U23">
         <v>2</v>
       </c>
@@ -2661,45 +2662,45 @@
         <v>0.2376655893183256</v>
       </c>
       <c r="AC23">
-        <f>AE23/$AE$31</f>
+        <f t="shared" si="18"/>
         <v>0.2376655893183256</v>
       </c>
       <c r="AD23">
         <v>2</v>
       </c>
       <c r="AE23">
-        <f t="shared" ref="AE23:AE30" si="22">EXP(-((AD23-$AF$22)^2/3))</f>
+        <f t="shared" ref="AE23:AE30" si="23">EXP(-((AD23-$AF$22)^2/3))</f>
         <v>0.71653131057378927</v>
       </c>
       <c r="AG23">
         <v>2</v>
       </c>
       <c r="AH23" s="2">
-        <f t="shared" ref="AH23:AH27" si="23">ROUND(V23,0)</f>
+        <f t="shared" ref="AH23:AH27" si="24">ROUND(V23,0)</f>
         <v>1</v>
       </c>
       <c r="AI23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AJ23" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AK23" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL23" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM23" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="17"/>
       <c r="B24">
         <v>3</v>
       </c>
@@ -2727,8 +2728,8 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="17"/>
       <c r="M24">
         <v>3</v>
       </c>
@@ -2752,7 +2753,7 @@
       <c r="S24" s="2">
         <v>0</v>
       </c>
-      <c r="T24" s="7"/>
+      <c r="T24" s="17"/>
       <c r="U24">
         <v>3</v>
       </c>
@@ -2780,45 +2781,45 @@
         <v>0.2376655893183256</v>
       </c>
       <c r="AC24">
-        <f>AE24/$AE$31</f>
+        <f t="shared" si="18"/>
         <v>0.33168904946806299</v>
       </c>
       <c r="AD24">
         <v>3</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AG24">
         <v>3</v>
       </c>
       <c r="AH24" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" ref="AI24:AI27" si="24">ROUND(W24,0)</f>
+        <f t="shared" ref="AI24:AI27" si="25">ROUND(W24,0)</f>
         <v>1</v>
       </c>
       <c r="AJ24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AK24" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL24" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="17"/>
       <c r="B25">
         <v>4</v>
       </c>
@@ -2849,8 +2850,8 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="17"/>
       <c r="M25">
         <v>4</v>
       </c>
@@ -2875,7 +2876,7 @@
       <c r="S25" s="2">
         <v>1</v>
       </c>
-      <c r="T25" s="7"/>
+      <c r="T25" s="17"/>
       <c r="U25">
         <v>4</v>
       </c>
@@ -2903,45 +2904,45 @@
         <v>0.65678692297049568</v>
       </c>
       <c r="AC25">
-        <f>AE25/$AE$31</f>
+        <f t="shared" si="18"/>
         <v>0.2376655893183256</v>
       </c>
       <c r="AD25">
         <v>4</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.71653131057378927</v>
       </c>
       <c r="AG25">
         <v>4</v>
       </c>
       <c r="AH25" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AI25" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" ref="AJ25:AJ27" si="25">ROUND(X25,0)</f>
+        <f t="shared" ref="AJ25:AJ27" si="26">ROUND(X25,0)</f>
         <v>0</v>
       </c>
       <c r="AK25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="17"/>
       <c r="B26">
         <v>5</v>
       </c>
@@ -2972,8 +2973,8 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="17"/>
       <c r="M26">
         <v>5</v>
       </c>
@@ -2999,7 +3000,7 @@
       <c r="S26" s="2">
         <v>1</v>
       </c>
-      <c r="T26" s="7"/>
+      <c r="T26" s="17"/>
       <c r="U26">
         <v>5</v>
       </c>
@@ -3027,45 +3028,45 @@
         <v>0.98348617461726162</v>
       </c>
       <c r="AC26">
-        <f>AE26/$AE$31</f>
+        <f t="shared" si="18"/>
         <v>8.7432284184107131E-2</v>
       </c>
       <c r="AD26">
         <v>5</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.26359713811572677</v>
       </c>
       <c r="AG26">
         <v>5</v>
       </c>
       <c r="AH26" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AI26" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AJ26" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" ref="AK26:AK27" si="26">ROUND(Y26,0)</f>
+        <f t="shared" ref="AK26:AK27" si="27">ROUND(Y26,0)</f>
         <v>1</v>
       </c>
       <c r="AL26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="17"/>
       <c r="B27">
         <v>6</v>
       </c>
@@ -3096,8 +3097,8 @@
       <c r="J27" s="2">
         <v>0</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="7"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="17"/>
       <c r="M27">
         <v>6</v>
       </c>
@@ -3124,7 +3125,7 @@
       <c r="S27" s="1">
         <v>0</v>
       </c>
-      <c r="T27" s="7"/>
+      <c r="T27" s="17"/>
       <c r="U27">
         <v>6</v>
       </c>
@@ -3152,37 +3153,37 @@
         <v>0</v>
       </c>
       <c r="AC27">
-        <f>AE27/$AE$31</f>
+        <f t="shared" si="18"/>
         <v>1.6513825382738257E-2</v>
       </c>
       <c r="AD27">
         <v>6</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.9787068367863944E-2</v>
       </c>
       <c r="AG27">
         <v>6</v>
       </c>
       <c r="AH27" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AI27" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AJ27" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AK27" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AL27" s="2">
-        <f t="shared" ref="AL27" si="27">ROUND(Z27,0)</f>
+        <f t="shared" ref="AL27" si="28">ROUND(Z27,0)</f>
         <v>1</v>
       </c>
       <c r="AM27" s="2" t="s">
@@ -3191,7 +3192,7 @@
     </row>
     <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="2">
@@ -3218,31 +3219,31 @@
       <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="8"/>
       <c r="L28" s="4"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="9"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="8"/>
       <c r="T28" s="4"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="9"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
-      <c r="AM28" s="8"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="8"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
     </row>
     <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="2">
@@ -3269,27 +3270,27 @@
       <c r="J29" s="1">
         <v>0</v>
       </c>
-      <c r="K29" s="9"/>
+      <c r="K29" s="8"/>
       <c r="L29" s="4"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="9"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="8"/>
       <c r="T29" s="4"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="9"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
-      <c r="AK29" s="8"/>
-      <c r="AL29" s="8"/>
-      <c r="AM29" s="8"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="8"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AC30">
@@ -3300,7 +3301,7 @@
         <v>7</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.8279499938314414E-3</v>
       </c>
     </row>
@@ -3323,10 +3324,10 @@
       <c r="H31">
         <v>6</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31" s="11" t="s">
+      <c r="I31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="10" t="s">
         <v>2</v>
       </c>
       <c r="N31">
@@ -3393,7 +3394,7 @@
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="17">
         <v>4</v>
       </c>
       <c r="B32">
@@ -3423,8 +3424,8 @@
       <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="7">
+      <c r="K32" s="7"/>
+      <c r="L32" s="17">
         <v>4</v>
       </c>
       <c r="M32">
@@ -3448,7 +3449,7 @@
       <c r="S32" s="2">
         <v>0</v>
       </c>
-      <c r="T32" s="7">
+      <c r="T32" s="17">
         <v>4</v>
       </c>
       <c r="U32">
@@ -3478,7 +3479,7 @@
         <v>8.6147612458603653E-2</v>
       </c>
       <c r="AC32">
-        <f t="shared" ref="AC32:AC40" si="28">AE32/$AE$41</f>
+        <f t="shared" ref="AC32:AC40" si="29">AE32/$AE$41</f>
         <v>1.6271182236135419E-2</v>
       </c>
       <c r="AD32">
@@ -3502,24 +3503,24 @@
         <v>1</v>
       </c>
       <c r="AJ32" s="2">
-        <f t="shared" ref="AJ32:AJ33" si="29">ROUND(X32,0)</f>
+        <f t="shared" ref="AJ32:AJ33" si="30">ROUND(X32,0)</f>
         <v>0</v>
       </c>
       <c r="AK32" s="2">
-        <f t="shared" ref="AK32:AK34" si="30">ROUND(Y32,0)</f>
+        <f t="shared" ref="AK32:AK34" si="31">ROUND(Y32,0)</f>
         <v>0</v>
       </c>
       <c r="AL32" s="2">
-        <f t="shared" ref="AL32:AL35" si="31">ROUND(Z32,0)</f>
+        <f t="shared" ref="AL32:AL35" si="32">ROUND(Z32,0)</f>
         <v>0</v>
       </c>
       <c r="AM32" s="2">
-        <f t="shared" ref="AM32:AM36" si="32">ROUND(AA32,0)</f>
+        <f t="shared" ref="AM32:AM36" si="33">ROUND(AA32,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="17"/>
       <c r="B33">
         <v>2</v>
       </c>
@@ -3547,8 +3548,8 @@
       <c r="J33" s="2">
         <v>0</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="17"/>
       <c r="M33">
         <v>2</v>
       </c>
@@ -3571,7 +3572,7 @@
       <c r="S33" s="2">
         <v>0</v>
       </c>
-      <c r="T33" s="7"/>
+      <c r="T33" s="17"/>
       <c r="U33">
         <v>2</v>
       </c>
@@ -3599,45 +3600,45 @@
         <v>8.6147612458603653E-2</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.6147612458603653E-2</v>
       </c>
       <c r="AD33">
         <v>2</v>
       </c>
       <c r="AE33">
-        <f t="shared" ref="AE33:AE40" si="33">EXP(-((AD33-$AF$32)^2/3))</f>
+        <f t="shared" ref="AE33:AE40" si="34">EXP(-((AD33-$AF$32)^2/3))</f>
         <v>0.26359713811572677</v>
       </c>
       <c r="AG33">
         <v>2</v>
       </c>
       <c r="AH33" s="2">
-        <f t="shared" ref="AH33:AH37" si="34">ROUND(V33,0)</f>
+        <f t="shared" ref="AH33:AH37" si="35">ROUND(V33,0)</f>
         <v>1</v>
       </c>
       <c r="AI33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AJ33" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AK33" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AL33" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AM33" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="17"/>
       <c r="B34">
         <v>3</v>
       </c>
@@ -3665,8 +3666,8 @@
       <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="17"/>
       <c r="M34">
         <v>3</v>
       </c>
@@ -3690,7 +3691,7 @@
       <c r="S34" s="2">
         <v>0</v>
       </c>
-      <c r="T34" s="7"/>
+      <c r="T34" s="17"/>
       <c r="U34">
         <v>3</v>
       </c>
@@ -3718,45 +3719,45 @@
         <v>8.6147612458603653E-2</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.23417348951135436</v>
       </c>
       <c r="AD34">
         <v>3</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.71653131057378927</v>
       </c>
       <c r="AG34">
         <v>3</v>
       </c>
       <c r="AH34" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI34" s="2">
-        <f t="shared" ref="AI34:AI37" si="35">ROUND(W34,0)</f>
+        <f t="shared" ref="AI34:AI37" si="36">ROUND(W34,0)</f>
         <v>1</v>
       </c>
       <c r="AJ34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AK34" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AL34" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AM34" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="17"/>
       <c r="B35">
         <v>4</v>
       </c>
@@ -3787,8 +3788,8 @@
       <c r="J35" s="2">
         <v>0</v>
       </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="17"/>
       <c r="M35">
         <v>4</v>
       </c>
@@ -3813,7 +3814,7 @@
       <c r="S35" s="2">
         <v>0</v>
       </c>
-      <c r="T35" s="7"/>
+      <c r="T35" s="17"/>
       <c r="U35">
         <v>4</v>
       </c>
@@ -3841,45 +3842,45 @@
         <v>0.33659228420609344</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.32681543158781318</v>
       </c>
       <c r="AD35">
         <v>4</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AG35">
         <v>4</v>
       </c>
       <c r="AH35" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI35" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AJ35" s="2">
-        <f t="shared" ref="AJ35:AJ37" si="36">ROUND(X35,0)</f>
+        <f t="shared" ref="AJ35:AJ37" si="37">ROUND(X35,0)</f>
         <v>0</v>
       </c>
       <c r="AK35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AL35" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AM35" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="17"/>
       <c r="B36">
         <v>5</v>
       </c>
@@ -3910,8 +3911,8 @@
       <c r="J36" s="2">
         <v>0</v>
       </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="17"/>
       <c r="M36">
         <v>5</v>
       </c>
@@ -3937,7 +3938,7 @@
       <c r="S36" s="2">
         <v>1</v>
       </c>
-      <c r="T36" s="7"/>
+      <c r="T36" s="17"/>
       <c r="U36">
         <v>5</v>
       </c>
@@ -3965,45 +3966,45 @@
         <v>0.91385238754139642</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.23417348951135436</v>
       </c>
       <c r="AD36">
         <v>5</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.71653131057378927</v>
       </c>
       <c r="AG36">
         <v>5</v>
       </c>
       <c r="AH36" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI36" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AK36" s="2">
-        <f t="shared" ref="AK36:AK37" si="37">ROUND(Y36,0)</f>
+        <f t="shared" ref="AK36:AK37" si="38">ROUND(Y36,0)</f>
         <v>0</v>
       </c>
       <c r="AL36" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AM36" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="17"/>
       <c r="B37">
         <v>6</v>
       </c>
@@ -4034,8 +4035,8 @@
       <c r="J37" s="2">
         <v>0</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="7"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="17"/>
       <c r="M37">
         <v>6</v>
       </c>
@@ -4062,7 +4063,7 @@
       <c r="S37" s="3">
         <v>0</v>
       </c>
-      <c r="T37" s="7"/>
+      <c r="T37" s="17"/>
       <c r="U37">
         <v>6</v>
       </c>
@@ -4090,37 +4091,37 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.6147612458603653E-2</v>
       </c>
       <c r="AD37">
         <v>6</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.26359713811572677</v>
       </c>
       <c r="AG37">
         <v>6</v>
       </c>
       <c r="AH37" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI37" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AJ37" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AK37" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AL37" s="2">
-        <f t="shared" ref="AL37" si="38">ROUND(Z37,0)</f>
+        <f t="shared" ref="AL37" si="39">ROUND(Z37,0)</f>
         <v>1</v>
       </c>
       <c r="AM37" s="2" t="s">
@@ -4129,7 +4130,7 @@
     </row>
     <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="2">
@@ -4156,31 +4157,31 @@
       <c r="J38" s="3">
         <v>1</v>
       </c>
-      <c r="K38" s="10"/>
+      <c r="K38" s="9"/>
       <c r="L38" s="4"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="10"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="9"/>
       <c r="T38" s="4"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="9"/>
-      <c r="AH38" s="8"/>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
-      <c r="AK38" s="8"/>
-      <c r="AL38" s="8"/>
-      <c r="AM38" s="8"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="8"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
     </row>
     <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="2">
@@ -4207,38 +4208,38 @@
       <c r="J39" s="3">
         <v>0</v>
       </c>
-      <c r="K39" s="10"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="4"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="10"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="9"/>
       <c r="T39" s="4"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="9"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="8"/>
-      <c r="AM39" s="8"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="8"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AC40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.6271182236135419E-2</v>
       </c>
       <c r="AD40">
         <v>7</v>
       </c>
       <c r="AE40">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.9787068367863944E-2</v>
       </c>
     </row>
@@ -4261,10 +4262,10 @@
       <c r="H41">
         <v>6</v>
       </c>
-      <c r="I41" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J41" s="11" t="s">
+      <c r="I41" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="10" t="s">
         <v>2</v>
       </c>
       <c r="N41">
@@ -4331,7 +4332,7 @@
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="17">
         <v>5</v>
       </c>
       <c r="B42">
@@ -4361,8 +4362,8 @@
       <c r="J42" s="2">
         <v>0</v>
       </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="7">
+      <c r="K42" s="7"/>
+      <c r="L42" s="17">
         <v>5</v>
       </c>
       <c r="M42">
@@ -4386,7 +4387,7 @@
       <c r="S42" s="2">
         <v>0</v>
       </c>
-      <c r="T42" s="7">
+      <c r="T42" s="17">
         <v>5</v>
       </c>
       <c r="U42">
@@ -4416,7 +4417,7 @@
         <v>1.6513825382738257E-2</v>
       </c>
       <c r="AC42">
-        <f t="shared" ref="AC42:AC50" si="39">AE42/$AE$51</f>
+        <f t="shared" ref="AC42:AC50" si="40">AE42/$AE$51</f>
         <v>1.6013781443332913E-3</v>
       </c>
       <c r="AD42">
@@ -4440,24 +4441,24 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="2">
-        <f t="shared" ref="AJ42:AJ43" si="40">ROUND(X42,0)</f>
+        <f t="shared" ref="AJ42:AJ43" si="41">ROUND(X42,0)</f>
         <v>0</v>
       </c>
       <c r="AK42" s="2">
-        <f t="shared" ref="AK42:AK44" si="41">ROUND(Y42,0)</f>
+        <f t="shared" ref="AK42:AK44" si="42">ROUND(Y42,0)</f>
         <v>0</v>
       </c>
       <c r="AL42" s="2">
-        <f t="shared" ref="AL42:AL45" si="42">ROUND(Z42,0)</f>
+        <f t="shared" ref="AL42:AL45" si="43">ROUND(Z42,0)</f>
         <v>0</v>
       </c>
       <c r="AM42" s="2">
-        <f t="shared" ref="AM42:AM46" si="43">ROUND(AA42,0)</f>
+        <f t="shared" ref="AM42:AM46" si="44">ROUND(AA42,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="17"/>
       <c r="B43">
         <v>2</v>
       </c>
@@ -4485,8 +4486,8 @@
       <c r="J43" s="2">
         <v>0</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="17"/>
       <c r="M43">
         <v>2</v>
       </c>
@@ -4509,7 +4510,7 @@
       <c r="S43" s="2">
         <v>0</v>
       </c>
-      <c r="T43" s="7"/>
+      <c r="T43" s="17"/>
       <c r="U43">
         <v>2</v>
       </c>
@@ -4537,14 +4538,14 @@
         <v>1.6513825382738257E-2</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.6513825382738257E-2</v>
       </c>
       <c r="AD43">
         <v>2</v>
       </c>
       <c r="AE43">
-        <f t="shared" ref="AE43:AE50" si="44">EXP(-((AD43-$AF$42)^2/3))</f>
+        <f t="shared" ref="AE43:AE50" si="45">EXP(-((AD43-$AF$42)^2/3))</f>
         <v>4.9787068367863944E-2</v>
       </c>
       <c r="AF43" s="5"/>
@@ -4552,31 +4553,31 @@
         <v>2</v>
       </c>
       <c r="AH43" s="2">
-        <f t="shared" ref="AH43:AH47" si="45">ROUND(V43,0)</f>
+        <f t="shared" ref="AH43:AH47" si="46">ROUND(V43,0)</f>
         <v>0</v>
       </c>
       <c r="AI43" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AJ43" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AK43" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AL43" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AM43" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="A44" s="17"/>
       <c r="B44">
         <v>3</v>
       </c>
@@ -4604,8 +4605,8 @@
       <c r="J44" s="2">
         <v>0</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="17"/>
       <c r="M44">
         <v>3</v>
       </c>
@@ -4629,7 +4630,7 @@
       <c r="S44" s="2">
         <v>0</v>
       </c>
-      <c r="T44" s="7"/>
+      <c r="T44" s="17"/>
       <c r="U44">
         <v>3</v>
       </c>
@@ -4657,14 +4658,14 @@
         <v>1.6513825382738257E-2</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>8.7432284184107131E-2</v>
       </c>
       <c r="AD44">
         <v>3</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.26359713811572677</v>
       </c>
       <c r="AF44" s="5"/>
@@ -4672,31 +4673,31 @@
         <v>3</v>
       </c>
       <c r="AH44" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AI44" s="2">
-        <f t="shared" ref="AI44:AI47" si="46">ROUND(W44,0)</f>
+        <f t="shared" ref="AI44:AI47" si="47">ROUND(W44,0)</f>
         <v>1</v>
       </c>
       <c r="AJ44" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AK44" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AL44" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AM44" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="A45" s="17"/>
       <c r="B45">
         <v>4</v>
       </c>
@@ -4727,8 +4728,8 @@
       <c r="J45" s="2">
         <v>0</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="17"/>
       <c r="M45">
         <v>4</v>
       </c>
@@ -4753,7 +4754,7 @@
       <c r="S45" s="2">
         <v>0</v>
       </c>
-      <c r="T45" s="7"/>
+      <c r="T45" s="17"/>
       <c r="U45">
         <v>4</v>
       </c>
@@ -4781,14 +4782,14 @@
         <v>0.10554748771117868</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.2376655893183256</v>
       </c>
       <c r="AD45">
         <v>4</v>
       </c>
       <c r="AE45">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.71653131057378927</v>
       </c>
       <c r="AF45" s="5"/>
@@ -4796,31 +4797,31 @@
         <v>4</v>
       </c>
       <c r="AH45" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AI45" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ45" s="2">
-        <f t="shared" ref="AJ45:AJ47" si="47">ROUND(X45,0)</f>
+        <f t="shared" ref="AJ45:AJ47" si="48">ROUND(X45,0)</f>
         <v>0</v>
       </c>
       <c r="AK45" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AL45" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AM45" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A46" s="17"/>
       <c r="B46">
         <v>5</v>
       </c>
@@ -4851,8 +4852,8 @@
       <c r="J46" s="2">
         <v>0</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="17"/>
       <c r="M46">
         <v>5</v>
       </c>
@@ -4878,7 +4879,7 @@
       <c r="S46" s="2">
         <v>1</v>
       </c>
-      <c r="T46" s="7"/>
+      <c r="T46" s="17"/>
       <c r="U46">
         <v>5</v>
       </c>
@@ -4906,45 +4907,45 @@
         <v>0.76233441068167429</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.33168904946806299</v>
       </c>
       <c r="AD46">
         <v>5</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AG46">
         <v>5</v>
       </c>
       <c r="AH46" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AI46" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ46" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AK46" s="2">
-        <f t="shared" ref="AK46:AK47" si="48">ROUND(Y46,0)</f>
+        <f t="shared" ref="AK46:AK47" si="49">ROUND(Y46,0)</f>
         <v>0</v>
       </c>
       <c r="AL46" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AM46" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+      <c r="A47" s="17"/>
       <c r="B47">
         <v>6</v>
       </c>
@@ -4975,8 +4976,8 @@
       <c r="J47" s="2">
         <v>0</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="7"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="17"/>
       <c r="M47">
         <v>6</v>
       </c>
@@ -5003,7 +5004,7 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="7"/>
+      <c r="T47" s="17"/>
       <c r="U47">
         <v>6</v>
       </c>
@@ -5031,37 +5032,37 @@
         <v>0</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.2376655893183256</v>
       </c>
       <c r="AD47">
         <v>6</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.71653131057378927</v>
       </c>
       <c r="AG47">
         <v>6</v>
       </c>
       <c r="AH47" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AI47" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ47" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AK47" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AL47" s="2">
-        <f t="shared" ref="AL47" si="49">ROUND(Z47,0)</f>
+        <f t="shared" ref="AL47" si="50">ROUND(Z47,0)</f>
         <v>1</v>
       </c>
       <c r="AM47" s="2" t="s">
@@ -5070,7 +5071,7 @@
     </row>
     <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="2">
@@ -5097,31 +5098,31 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="10"/>
+      <c r="K48" s="9"/>
       <c r="L48" s="4"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="10"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="9"/>
       <c r="T48" s="4"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="9"/>
-      <c r="AH48" s="8"/>
-      <c r="AI48" s="8"/>
-      <c r="AJ48" s="8"/>
-      <c r="AK48" s="8"/>
-      <c r="AL48" s="8"/>
-      <c r="AM48" s="8"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="8"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
     </row>
     <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="2">
@@ -5148,38 +5149,38 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="10"/>
+      <c r="K49" s="9"/>
       <c r="L49" s="4"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="10"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="9"/>
       <c r="T49" s="4"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="9"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="8"/>
-      <c r="AJ49" s="8"/>
-      <c r="AK49" s="8"/>
-      <c r="AL49" s="8"/>
-      <c r="AM49" s="8"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="8"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AC50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>8.7432284184107131E-2</v>
       </c>
       <c r="AD50">
         <v>7</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.26359713811572677</v>
       </c>
     </row>
@@ -5202,10 +5203,10 @@
       <c r="H51">
         <v>6</v>
       </c>
-      <c r="I51" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J51" s="11" t="s">
+      <c r="I51" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="10" t="s">
         <v>2</v>
       </c>
       <c r="N51">
@@ -5272,7 +5273,7 @@
       </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52" s="17">
         <v>6</v>
       </c>
       <c r="B52">
@@ -5302,8 +5303,8 @@
       <c r="J52" s="2">
         <v>0</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="7">
+      <c r="K52" s="7"/>
+      <c r="L52" s="17">
         <v>6</v>
       </c>
       <c r="M52">
@@ -5327,7 +5328,7 @@
       <c r="S52" s="2">
         <v>0</v>
       </c>
-      <c r="T52" s="7">
+      <c r="T52" s="17">
         <v>6</v>
       </c>
       <c r="U52">
@@ -5357,7 +5358,7 @@
         <v>1.7546514322908378E-3</v>
       </c>
       <c r="AC52">
-        <f t="shared" ref="AC52:AC60" si="50">AE52/$AE$61</f>
+        <f t="shared" ref="AC52:AC60" si="51">AE52/$AE$61</f>
         <v>8.735895082123426E-5</v>
       </c>
       <c r="AD52">
@@ -5381,24 +5382,24 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="2">
-        <f t="shared" ref="AJ52:AJ53" si="51">ROUND(X52,0)</f>
+        <f t="shared" ref="AJ52:AJ53" si="52">ROUND(X52,0)</f>
         <v>0</v>
       </c>
       <c r="AK52" s="2">
-        <f t="shared" ref="AK52:AK54" si="52">ROUND(Y52,0)</f>
+        <f t="shared" ref="AK52:AK54" si="53">ROUND(Y52,0)</f>
         <v>0</v>
       </c>
       <c r="AL52" s="2">
-        <f t="shared" ref="AL52:AL55" si="53">ROUND(Z52,0)</f>
+        <f t="shared" ref="AL52:AL55" si="54">ROUND(Z52,0)</f>
         <v>0</v>
       </c>
       <c r="AM52" s="2">
-        <f t="shared" ref="AM52:AM56" si="54">ROUND(AA52,0)</f>
+        <f t="shared" ref="AM52:AM56" si="55">ROUND(AA52,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="17"/>
       <c r="B53">
         <v>2</v>
       </c>
@@ -5426,8 +5427,8 @@
       <c r="J53" s="2">
         <v>0</v>
       </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="17"/>
       <c r="M53">
         <v>2</v>
       </c>
@@ -5450,7 +5451,7 @@
       <c r="S53" s="2">
         <v>0</v>
       </c>
-      <c r="T53" s="7"/>
+      <c r="T53" s="17"/>
       <c r="U53">
         <v>2</v>
       </c>
@@ -5478,45 +5479,45 @@
         <v>1.7546514322908378E-3</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1.7546514322908378E-3</v>
       </c>
       <c r="AD53">
         <v>2</v>
       </c>
       <c r="AE53">
-        <f t="shared" ref="AE53:AE60" si="55">EXP(-((AD53-$AF$52)^2/3))</f>
+        <f t="shared" ref="AE53:AE60" si="56">EXP(-((AD53-$AF$52)^2/3))</f>
         <v>4.8279499938314414E-3</v>
       </c>
       <c r="AG53">
         <v>2</v>
       </c>
       <c r="AH53" s="2">
-        <f t="shared" ref="AH53:AH57" si="56">ROUND(V53,0)</f>
+        <f t="shared" ref="AH53:AH57" si="57">ROUND(V53,0)</f>
         <v>0</v>
       </c>
       <c r="AI53" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AJ53" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="AK53" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AL53" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AM53" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="17"/>
       <c r="B54">
         <v>3</v>
       </c>
@@ -5544,8 +5545,8 @@
       <c r="J54" s="2">
         <v>0</v>
       </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="17"/>
       <c r="M54">
         <v>3</v>
       </c>
@@ -5569,7 +5570,7 @@
       <c r="S54" s="2">
         <v>0</v>
       </c>
-      <c r="T54" s="7"/>
+      <c r="T54" s="17"/>
       <c r="U54">
         <v>3</v>
       </c>
@@ -5597,45 +5598,45 @@
         <v>1.7546514322908378E-3</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1.8094419149504617E-2</v>
       </c>
       <c r="AD54">
         <v>3</v>
       </c>
       <c r="AE54">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4.9787068367863944E-2</v>
       </c>
       <c r="AG54">
         <v>3</v>
       </c>
       <c r="AH54" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AI54" s="2">
-        <f t="shared" ref="AI54:AI57" si="57">ROUND(W54,0)</f>
+        <f t="shared" ref="AI54:AI57" si="58">ROUND(W54,0)</f>
         <v>1</v>
       </c>
       <c r="AJ54" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AK54" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AL54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AM54" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="17"/>
       <c r="B55">
         <v>4</v>
       </c>
@@ -5666,8 +5667,8 @@
       <c r="J55" s="2">
         <v>0</v>
       </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="17"/>
       <c r="M55">
         <v>4</v>
       </c>
@@ -5692,7 +5693,7 @@
       <c r="S55" s="2">
         <v>0</v>
       </c>
-      <c r="T55" s="7"/>
+      <c r="T55" s="17"/>
       <c r="U55">
         <v>4</v>
       </c>
@@ -5720,45 +5721,45 @@
         <v>1.9936429532616689E-2</v>
       </c>
       <c r="AC55">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>9.5800722156086565E-2</v>
       </c>
       <c r="AD55">
         <v>4</v>
       </c>
       <c r="AE55">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.26359713811572677</v>
       </c>
       <c r="AG55">
         <v>4</v>
       </c>
       <c r="AH55" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AI55" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AJ55" s="2">
-        <f t="shared" ref="AJ55:AJ57" si="58">ROUND(X55,0)</f>
+        <f t="shared" ref="AJ55:AJ57" si="59">ROUND(X55,0)</f>
         <v>0</v>
       </c>
       <c r="AK55" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AL55" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AM55" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+      <c r="A56" s="17"/>
       <c r="B56">
         <v>5</v>
       </c>
@@ -5789,8 +5790,8 @@
       <c r="J56" s="2">
         <v>0</v>
       </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="17"/>
       <c r="M56">
         <v>5</v>
       </c>
@@ -5816,7 +5817,7 @@
       <c r="S56" s="2">
         <v>0</v>
       </c>
-      <c r="T56" s="7"/>
+      <c r="T56" s="17"/>
       <c r="U56">
         <v>5</v>
       </c>
@@ -5844,45 +5845,45 @@
         <v>0.63656387606899112</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.26041336219014394</v>
       </c>
       <c r="AD56">
         <v>5</v>
       </c>
       <c r="AE56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.71653131057378927</v>
       </c>
       <c r="AG56">
         <v>5</v>
       </c>
       <c r="AH56" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AI56" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AJ56" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AK56" s="2">
-        <f t="shared" ref="AK56:AK57" si="59">ROUND(Y56,0)</f>
+        <f t="shared" ref="AK56:AK57" si="60">ROUND(Y56,0)</f>
         <v>0</v>
       </c>
       <c r="AL56" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AM56" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+      <c r="A57" s="17"/>
       <c r="B57">
         <v>6</v>
       </c>
@@ -5913,8 +5914,8 @@
       <c r="J57" s="2">
         <v>0</v>
       </c>
-      <c r="K57" s="10"/>
-      <c r="L57" s="7"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="17"/>
       <c r="M57">
         <v>6</v>
       </c>
@@ -5941,7 +5942,7 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="7"/>
+      <c r="T57" s="17"/>
       <c r="U57">
         <v>6</v>
       </c>
@@ -5969,37 +5970,37 @@
         <v>0</v>
       </c>
       <c r="AC57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.36343612393100899</v>
       </c>
       <c r="AD57">
         <v>6</v>
       </c>
       <c r="AE57">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="AG57">
         <v>6</v>
       </c>
       <c r="AH57" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AI57" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AJ57" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AK57" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AL57" s="2">
-        <f t="shared" ref="AL57" si="60">ROUND(Z57,0)</f>
+        <f t="shared" ref="AL57" si="61">ROUND(Z57,0)</f>
         <v>1</v>
       </c>
       <c r="AM57" s="2" t="s">
@@ -6008,7 +6009,7 @@
     </row>
     <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="2">
@@ -6035,31 +6036,31 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="10"/>
+      <c r="K58" s="9"/>
       <c r="L58" s="4"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="10"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="9"/>
       <c r="T58" s="4"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-      <c r="Y58" s="8"/>
-      <c r="Z58" s="8"/>
-      <c r="AA58" s="9"/>
-      <c r="AH58" s="8"/>
-      <c r="AI58" s="8"/>
-      <c r="AJ58" s="8"/>
-      <c r="AK58" s="8"/>
-      <c r="AL58" s="8"/>
-      <c r="AM58" s="8"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="8"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="7"/>
+      <c r="AL58" s="7"/>
+      <c r="AM58" s="7"/>
     </row>
     <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C59" s="2">
@@ -6086,38 +6087,38 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="10"/>
+      <c r="K59" s="9"/>
       <c r="L59" s="4"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="10"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="9"/>
       <c r="T59" s="4"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-      <c r="X59" s="8"/>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="8"/>
-      <c r="AA59" s="9"/>
-      <c r="AH59" s="8"/>
-      <c r="AI59" s="8"/>
-      <c r="AJ59" s="8"/>
-      <c r="AK59" s="8"/>
-      <c r="AL59" s="8"/>
-      <c r="AM59" s="8"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="8"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AC60">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.26041336219014394</v>
       </c>
       <c r="AD60">
         <v>7</v>
       </c>
       <c r="AE60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.71653131057378927</v>
       </c>
     </row>
@@ -6204,7 +6205,7 @@
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="A62" s="17">
         <v>7</v>
       </c>
       <c r="B62">
@@ -6234,8 +6235,8 @@
       <c r="J62" s="2">
         <v>0</v>
       </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="7">
+      <c r="K62" s="7"/>
+      <c r="L62" s="17">
         <v>7</v>
       </c>
       <c r="M62">
@@ -6259,7 +6260,7 @@
       <c r="S62" s="2">
         <v>0</v>
       </c>
-      <c r="T62" s="7">
+      <c r="T62" s="17">
         <v>7</v>
       </c>
       <c r="U62">
@@ -6289,7 +6290,7 @@
         <v>1.1811826038185624E-4</v>
       </c>
       <c r="AC62">
-        <f t="shared" ref="AC62:AC68" si="61">AE62/$AE$69</f>
+        <f t="shared" ref="AC62:AC68" si="62">AE62/$AE$69</f>
         <v>3.0192838350457071E-6</v>
       </c>
       <c r="AD62">
@@ -6313,24 +6314,24 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="2">
-        <f t="shared" ref="AJ62:AJ63" si="62">ROUND(X62,0)</f>
+        <f t="shared" ref="AJ62:AJ63" si="63">ROUND(X62,0)</f>
         <v>0</v>
       </c>
       <c r="AK62" s="2">
-        <f t="shared" ref="AK62:AK64" si="63">ROUND(Y62,0)</f>
+        <f t="shared" ref="AK62:AK64" si="64">ROUND(Y62,0)</f>
         <v>0</v>
       </c>
       <c r="AL62" s="2">
-        <f t="shared" ref="AL62:AL65" si="64">ROUND(Z62,0)</f>
+        <f t="shared" ref="AL62:AL65" si="65">ROUND(Z62,0)</f>
         <v>0</v>
       </c>
       <c r="AM62" s="2">
-        <f t="shared" ref="AM62:AM66" si="65">ROUND(AA62,0)</f>
+        <f t="shared" ref="AM62:AM66" si="66">ROUND(AA62,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+      <c r="A63" s="17"/>
       <c r="B63">
         <v>2</v>
       </c>
@@ -6358,8 +6359,8 @@
       <c r="J63" s="2">
         <v>0</v>
       </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="17"/>
       <c r="M63">
         <v>2</v>
       </c>
@@ -6382,7 +6383,7 @@
       <c r="S63" s="2">
         <v>0</v>
       </c>
-      <c r="T63" s="7"/>
+      <c r="T63" s="17"/>
       <c r="U63">
         <v>2</v>
       </c>
@@ -6410,45 +6411,45 @@
         <v>1.1811826038185624E-4</v>
       </c>
       <c r="AC63">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.1811826038185624E-4</v>
       </c>
       <c r="AD63">
         <v>2</v>
       </c>
       <c r="AE63">
-        <f t="shared" ref="AE63:AE68" si="66">EXP(-((AD63-$AF$62)^2/3))</f>
+        <f t="shared" ref="AE63:AE68" si="67">EXP(-((AD63-$AF$62)^2/3))</f>
         <v>2.4036947641951407E-4</v>
       </c>
       <c r="AG63">
         <v>2</v>
       </c>
       <c r="AH63" s="2">
-        <f t="shared" ref="AH63:AH67" si="67">ROUND(V63,0)</f>
+        <f t="shared" ref="AH63:AH67" si="68">ROUND(V63,0)</f>
         <v>0</v>
       </c>
       <c r="AI63" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AJ63" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="AK63" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AL63" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AM63" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+      <c r="A64" s="17"/>
       <c r="B64">
         <v>3</v>
       </c>
@@ -6476,8 +6477,8 @@
       <c r="J64" s="2">
         <v>0</v>
       </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="17"/>
       <c r="M64">
         <v>3</v>
       </c>
@@ -6501,7 +6502,7 @@
       <c r="S64" s="2">
         <v>0</v>
       </c>
-      <c r="T64" s="7"/>
+      <c r="T64" s="17"/>
       <c r="U64">
         <v>3</v>
       </c>
@@ -6529,45 +6530,45 @@
         <v>1.1811826038185624E-4</v>
       </c>
       <c r="AC64">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>2.3724686802024707E-3</v>
       </c>
       <c r="AD64">
         <v>3</v>
       </c>
       <c r="AE64">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>4.8279499938314414E-3</v>
       </c>
       <c r="AG64">
         <v>3</v>
       </c>
       <c r="AH64" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AI64" s="2">
-        <f t="shared" ref="AI64:AI67" si="68">ROUND(W64,0)</f>
+        <f t="shared" ref="AI64:AI67" si="69">ROUND(W64,0)</f>
         <v>1</v>
       </c>
       <c r="AJ64" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AK64" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AL64" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AM64" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
+      <c r="A65" s="17"/>
       <c r="B65">
         <v>4</v>
       </c>
@@ -6598,8 +6599,8 @@
       <c r="J65" s="2">
         <v>0</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="17"/>
       <c r="M65">
         <v>4</v>
       </c>
@@ -6624,7 +6625,7 @@
       <c r="S65" s="2">
         <v>0</v>
       </c>
-      <c r="T65" s="7"/>
+      <c r="T65" s="17"/>
       <c r="U65">
         <v>4</v>
       </c>
@@ -6652,36 +6653,36 @@
         <v>2.4936062244193726E-3</v>
       </c>
       <c r="AC65">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>2.4465510316547038E-2</v>
       </c>
       <c r="AD65">
         <v>4</v>
       </c>
       <c r="AE65">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>4.9787068367863944E-2</v>
       </c>
       <c r="AG65">
         <v>4</v>
       </c>
       <c r="AH65" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AI65" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AJ65" s="2">
-        <f t="shared" ref="AJ65:AJ67" si="69">ROUND(X65,0)</f>
+        <f t="shared" ref="AJ65:AJ67" si="70">ROUND(X65,0)</f>
         <v>0</v>
       </c>
       <c r="AK65" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AL65" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AM65" s="2">
@@ -6690,7 +6691,7 @@
       </c>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
+      <c r="A66" s="17"/>
       <c r="B66">
         <v>5</v>
       </c>
@@ -6721,8 +6722,8 @@
       <c r="J66" s="2">
         <v>0</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="17"/>
       <c r="M66">
         <v>5</v>
       </c>
@@ -6748,7 +6749,7 @@
       <c r="S66" s="2">
         <v>1</v>
       </c>
-      <c r="T66" s="7"/>
+      <c r="T66" s="17"/>
       <c r="U66">
         <v>5</v>
       </c>
@@ -6776,45 +6777,45 @@
         <v>0.64789442829923094</v>
       </c>
       <c r="AC66">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.12953240095063015</v>
       </c>
       <c r="AD66">
         <v>5</v>
       </c>
       <c r="AE66">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.26359713811572677</v>
       </c>
       <c r="AG66">
         <v>5</v>
       </c>
       <c r="AH66" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AI66" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AJ66" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AK66" s="2">
-        <f t="shared" ref="AK66:AK67" si="70">ROUND(Y66,0)</f>
+        <f t="shared" ref="AK66:AK67" si="71">ROUND(Y66,0)</f>
         <v>0</v>
       </c>
       <c r="AL66" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AM66" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
+      <c r="A67" s="17"/>
       <c r="B67">
         <v>6</v>
       </c>
@@ -6845,8 +6846,8 @@
       <c r="J67" s="2">
         <v>0</v>
       </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="7"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="17"/>
       <c r="M67">
         <v>6</v>
       </c>
@@ -6873,7 +6874,7 @@
       <c r="S67" s="3">
         <v>0</v>
       </c>
-      <c r="T67" s="7"/>
+      <c r="T67" s="17"/>
       <c r="U67">
         <v>6</v>
       </c>
@@ -6901,37 +6902,37 @@
         <v>0</v>
       </c>
       <c r="AC67">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.35210557170076912</v>
       </c>
       <c r="AD67">
         <v>6</v>
       </c>
       <c r="AE67">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.71653131057378927</v>
       </c>
       <c r="AG67">
         <v>6</v>
       </c>
       <c r="AH67" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AI67" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AJ67" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AK67" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AL67" s="2">
-        <f t="shared" ref="AL67" si="71">ROUND(Z67,0)</f>
+        <f t="shared" ref="AL67" si="72">ROUND(Z67,0)</f>
         <v>1</v>
       </c>
       <c r="AM67" s="2" t="s">
@@ -6939,7 +6940,7 @@
       </c>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="2">
@@ -6967,19 +6968,19 @@
         <v>1</v>
       </c>
       <c r="AC68">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.49140291080763432</v>
       </c>
       <c r="AD68">
         <v>7</v>
       </c>
       <c r="AE68">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="2">
@@ -7016,11 +7017,20 @@
       </c>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="F70" s="17"/>
+      <c r="F70" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="L13:L18"/>
+    <mergeCell ref="L3:L8"/>
+    <mergeCell ref="L52:L57"/>
+    <mergeCell ref="AH1:AM1"/>
+    <mergeCell ref="T42:T47"/>
+    <mergeCell ref="T52:T57"/>
+    <mergeCell ref="T62:T67"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="L32:L37"/>
     <mergeCell ref="A52:A57"/>
     <mergeCell ref="A62:A67"/>
     <mergeCell ref="C1:J1"/>
@@ -7036,15 +7046,6 @@
     <mergeCell ref="T13:T18"/>
     <mergeCell ref="T22:T27"/>
     <mergeCell ref="T32:T37"/>
-    <mergeCell ref="T42:T47"/>
-    <mergeCell ref="T52:T57"/>
-    <mergeCell ref="T62:T67"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="L32:L37"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="L13:L18"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="L52:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7086,7 +7087,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3">
@@ -7098,7 +7099,7 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="17">
         <v>1</v>
       </c>
       <c r="H3">
@@ -7137,7 +7138,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="17"/>
       <c r="B4">
         <v>2</v>
       </c>
@@ -7147,7 +7148,7 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="17"/>
       <c r="H4">
         <v>2</v>
       </c>
@@ -7181,8 +7182,8 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="N5">
         <f t="shared" ref="N5:N8" si="1">P5/$P$10</f>
         <v>0.12953240095063018</v>
@@ -7196,8 +7197,8 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="17"/>
+      <c r="G6" s="17"/>
       <c r="N6">
         <f t="shared" si="1"/>
         <v>2.4465510316547045E-2</v>
@@ -7211,8 +7212,8 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="N7">
         <f t="shared" si="1"/>
         <v>2.3724686802024711E-3</v>
@@ -7226,8 +7227,8 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="N8">
         <f t="shared" si="1"/>
         <v>1.1811826038185626E-4</v>
@@ -7282,7 +7283,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="17">
         <v>2</v>
       </c>
       <c r="B11">
@@ -7294,7 +7295,7 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="17">
         <v>2</v>
       </c>
       <c r="H11">
@@ -7333,7 +7334,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="17"/>
       <c r="B12">
         <v>2</v>
       </c>
@@ -7343,7 +7344,7 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="17"/>
       <c r="H12">
         <v>2</v>
       </c>
@@ -7377,8 +7378,8 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="N13">
         <f t="shared" ref="N13:N16" si="3">P13/$P$18</f>
         <v>0.26041336219014394</v>
@@ -7392,8 +7393,8 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="A14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="N14">
         <f t="shared" si="3"/>
         <v>9.5800722156086565E-2</v>
@@ -7407,8 +7408,8 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="17"/>
+      <c r="G15" s="17"/>
       <c r="N15">
         <f t="shared" si="3"/>
         <v>1.8094419149504617E-2</v>
@@ -7422,8 +7423,8 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="N16">
         <f t="shared" si="3"/>
         <v>1.7546514322908378E-3</v>
@@ -7478,7 +7479,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="17">
         <v>3</v>
       </c>
       <c r="B19">
@@ -7490,7 +7491,7 @@
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="17">
         <v>3</v>
       </c>
       <c r="H19">
@@ -7529,7 +7530,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="17"/>
       <c r="B20">
         <v>2</v>
       </c>
@@ -7539,7 +7540,7 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="17"/>
       <c r="H20">
         <v>2</v>
       </c>
@@ -7573,8 +7574,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="N21">
         <f t="shared" ref="N21:N24" si="5">P21/$P$26</f>
         <v>0.33168904946806299</v>
@@ -7588,8 +7589,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="17"/>
+      <c r="G22" s="17"/>
       <c r="N22">
         <f t="shared" si="5"/>
         <v>0.2376655893183256</v>
@@ -7603,8 +7604,8 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="17"/>
+      <c r="G23" s="17"/>
       <c r="N23">
         <f t="shared" si="5"/>
         <v>8.7432284184107131E-2</v>
@@ -7618,8 +7619,8 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="17"/>
+      <c r="G24" s="17"/>
       <c r="N24">
         <f t="shared" si="5"/>
         <v>1.6513825382738257E-2</v>
@@ -7674,7 +7675,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="17">
         <v>4</v>
       </c>
       <c r="B27">
@@ -7686,7 +7687,7 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="17">
         <v>4</v>
       </c>
       <c r="H27">
@@ -7725,7 +7726,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="17"/>
       <c r="B28">
         <v>2</v>
       </c>
@@ -7735,7 +7736,7 @@
       <c r="D28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="17"/>
       <c r="H28">
         <v>2</v>
       </c>
@@ -7769,8 +7770,8 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="17"/>
+      <c r="G29" s="17"/>
       <c r="N29">
         <f t="shared" ref="N29:N32" si="7">P29/$P$34</f>
         <v>0.23417348951135436</v>
@@ -7784,8 +7785,8 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="A30" s="17"/>
+      <c r="G30" s="17"/>
       <c r="N30">
         <f t="shared" si="7"/>
         <v>0.32681543158781318</v>
@@ -7799,8 +7800,8 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="17"/>
+      <c r="G31" s="17"/>
       <c r="N31">
         <f t="shared" si="7"/>
         <v>0.23417348951135436</v>
@@ -7814,8 +7815,8 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="A32" s="17"/>
+      <c r="G32" s="17"/>
       <c r="N32">
         <f t="shared" si="7"/>
         <v>8.6147612458603653E-2</v>
@@ -7870,7 +7871,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="17">
         <v>5</v>
       </c>
       <c r="B35">
@@ -7882,7 +7883,7 @@
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="17">
         <v>5</v>
       </c>
       <c r="H35">
@@ -7921,7 +7922,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="17"/>
       <c r="B36">
         <v>2</v>
       </c>
@@ -7931,7 +7932,7 @@
       <c r="D36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="17"/>
       <c r="H36">
         <v>2</v>
       </c>
@@ -7965,8 +7966,8 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="A37" s="17"/>
+      <c r="G37" s="17"/>
       <c r="N37">
         <f t="shared" ref="N37:N40" si="9">P37/$P$42</f>
         <v>8.7432284184107131E-2</v>
@@ -7980,8 +7981,8 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="A38" s="17"/>
+      <c r="G38" s="17"/>
       <c r="N38">
         <f t="shared" si="9"/>
         <v>0.2376655893183256</v>
@@ -7995,8 +7996,8 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="A39" s="17"/>
+      <c r="G39" s="17"/>
       <c r="N39">
         <f t="shared" si="9"/>
         <v>0.33168904946806299</v>
@@ -8010,8 +8011,8 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="A40" s="17"/>
+      <c r="G40" s="17"/>
       <c r="N40">
         <f t="shared" si="9"/>
         <v>0.2376655893183256</v>
@@ -8066,7 +8067,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43" s="17">
         <v>6</v>
       </c>
       <c r="B43">
@@ -8078,7 +8079,7 @@
       <c r="D43" s="2">
         <v>1</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="17">
         <v>6</v>
       </c>
       <c r="H43">
@@ -8117,7 +8118,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="A44" s="17"/>
       <c r="B44">
         <v>2</v>
       </c>
@@ -8127,7 +8128,7 @@
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="17"/>
       <c r="H44">
         <v>2</v>
       </c>
@@ -8161,8 +8162,8 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="A45" s="17"/>
+      <c r="G45" s="17"/>
       <c r="N45">
         <f t="shared" ref="N45:N48" si="11">P45/$P$50</f>
         <v>1.8094419149504617E-2</v>
@@ -8176,8 +8177,8 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="A46" s="17"/>
+      <c r="G46" s="17"/>
       <c r="N46">
         <f t="shared" si="11"/>
         <v>9.5800722156086565E-2</v>
@@ -8191,8 +8192,8 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="A47" s="17"/>
+      <c r="G47" s="17"/>
       <c r="N47">
         <f t="shared" si="11"/>
         <v>0.26041336219014394</v>
@@ -8206,8 +8207,8 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="A48" s="17"/>
+      <c r="G48" s="17"/>
       <c r="N48">
         <f t="shared" si="11"/>
         <v>0.36343612393100899</v>
@@ -8262,7 +8263,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="17">
         <v>7</v>
       </c>
       <c r="B51">
@@ -8274,7 +8275,7 @@
       <c r="D51" s="2">
         <v>1</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="17">
         <v>7</v>
       </c>
       <c r="H51">
@@ -8313,7 +8314,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+      <c r="A52" s="17"/>
       <c r="B52">
         <v>2</v>
       </c>
@@ -8323,7 +8324,7 @@
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="7"/>
+      <c r="G52" s="17"/>
       <c r="H52">
         <v>2</v>
       </c>
@@ -8357,8 +8358,8 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="A53" s="17"/>
+      <c r="G53" s="17"/>
       <c r="N53">
         <f t="shared" ref="N53:N56" si="13">P53/$P$58</f>
         <v>2.3724686802024707E-3</v>
@@ -8372,8 +8373,8 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="A54" s="17"/>
+      <c r="G54" s="17"/>
       <c r="N54">
         <f t="shared" si="13"/>
         <v>2.4465510316547038E-2</v>
@@ -8387,8 +8388,8 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="A55" s="17"/>
+      <c r="G55" s="17"/>
       <c r="N55">
         <f t="shared" si="13"/>
         <v>0.12953240095063015</v>
@@ -8402,8 +8403,8 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="A56" s="17"/>
+      <c r="G56" s="17"/>
       <c r="N56">
         <f t="shared" si="13"/>
         <v>0.35210557170076912</v>
@@ -8441,6 +8442,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="G19:G24"/>
     <mergeCell ref="A51:A56"/>
     <mergeCell ref="G51:G56"/>
     <mergeCell ref="A27:A32"/>
@@ -8449,12 +8456,6 @@
     <mergeCell ref="G35:G40"/>
     <mergeCell ref="A43:A48"/>
     <mergeCell ref="G43:G48"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="G19:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/runnig example.xlsx
+++ b/runnig example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\GitHub\nsLGL-based-LPCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\Professional\PhD\PaperForECML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2821AF15-EBF6-410D-A1A4-09FBD7A6F5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE924FC6-0681-4599-8605-1B5AB165960A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="12735" xr2:uid="{522E04DE-09B8-4124-99DE-56A1D788C5A5}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{522E04DE-09B8-4124-99DE-56A1D788C5A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="10">
   <si>
     <t>-</t>
   </si>
@@ -186,11 +186,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531650C0-766F-4E2F-BC45-94E22C2072EF}">
   <dimension ref="A1:AM70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,34 +519,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="U1" s="16" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="U1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
       <c r="AC1" s="14" t="s">
         <v>5</v>
       </c>
@@ -556,14 +556,14 @@
       <c r="AF1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AH1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C2">
@@ -646,7 +646,7 @@
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="7"/>
-      <c r="L3" s="17">
+      <c r="L3" s="16">
         <v>1</v>
       </c>
       <c r="M3">
@@ -701,7 +701,7 @@
       <c r="S3" s="2">
         <v>0</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="16">
         <v>1</v>
       </c>
       <c r="U3">
@@ -711,27 +711,27 @@
         <v>0</v>
       </c>
       <c r="W3" s="2">
-        <f>O$3*$AC3+O$13*$AC4+O$22*$AC5+O$32*$AC6+O$42*$AC7+O$52*$AC8+O$62*$AC11</f>
+        <f>O$3*$AC3+O$13*$AC4+O$22*$AC5+O$32*$AC6+O$42*$AC7+O$52*$AC8+O$62*$AC9</f>
         <v>0.99750639377558092</v>
       </c>
       <c r="X3" s="2">
-        <f>P$3*$AC3+P$13*$AC4+P$22*$AC5+P$32*$AC6+P$42*$AC7+P$52*$AC8+P$62*$AC11</f>
+        <f>P$3*$AC3+P$13*$AC4+P$22*$AC5+P$32*$AC6+P$42*$AC7+P$52*$AC8+P$62*$AC9</f>
         <v>0.86797399282495069</v>
       </c>
       <c r="Y3" s="2">
-        <f>Q$3*$AC3+Q$13*$AC4+Q$22*$AC5+Q$32*$AC6+Q$42*$AC7+Q$52*$AC8+Q$62*$AC11</f>
+        <f>Q$3*$AC3+Q$13*$AC4+Q$22*$AC5+Q$32*$AC6+Q$42*$AC7+Q$52*$AC8+Q$62*$AC9</f>
         <v>0.35210557170076917</v>
       </c>
       <c r="Z3" s="2">
-        <f>R$3*$AC3+R$13*$AC4+R$22*$AC5+R$32*$AC6+R$42*$AC7+R$52*$AC8+R$62*$AC11</f>
+        <f>R$3*$AC3+R$13*$AC4+R$22*$AC5+R$32*$AC6+R$42*$AC7+R$52*$AC8+R$62*$AC9</f>
         <v>0.35210557170076917</v>
       </c>
       <c r="AA3" s="2">
-        <f>S$3*$AC3+S$13*$AC4+S$22*$AC5+S$32*$AC6+S$42*$AC7+S$52*$AC8+S$62*$AC11</f>
+        <f>S$3*$AC3+S$13*$AC4+S$22*$AC5+S$32*$AC6+S$42*$AC7+S$52*$AC8+S$62*$AC9</f>
         <v>0.35210557170076917</v>
       </c>
       <c r="AC3" s="5">
-        <f>AE3/$AE$12</f>
+        <f t="shared" ref="AC3:AC9" si="0">AE3/$AE$10</f>
         <v>0.49140291080763443</v>
       </c>
       <c r="AD3">
@@ -755,24 +755,24 @@
         <v>1</v>
       </c>
       <c r="AJ3" s="2">
-        <f t="shared" ref="AJ3:AM3" si="0">ROUND(X3,0)</f>
+        <f t="shared" ref="AJ3:AM3" si="1">ROUND(X3,0)</f>
         <v>1</v>
       </c>
       <c r="AK3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4">
         <v>2</v>
       </c>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="7"/>
-      <c r="L4" s="17"/>
+      <c r="L4" s="16"/>
       <c r="M4">
         <v>2</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="S4" s="2">
         <v>0</v>
       </c>
-      <c r="T4" s="17"/>
+      <c r="T4" s="16"/>
       <c r="U4">
         <v>2</v>
       </c>
@@ -836,30 +836,30 @@
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <f>P$4*$AC3+P$14*$AC4+P$23*$AC5+P$33*$AC6+P$43*$AC7+P$53*$AC8+P$63*$AC11</f>
+        <f>P$4*$AC3+P$14*$AC4+P$23*$AC5+P$33*$AC6+P$43*$AC7+P$53*$AC8+P$63*$AC9</f>
         <v>0.8704675990493701</v>
       </c>
       <c r="Y4" s="2">
-        <f>Q$4*$AC3+Q$14*$AC4+Q$23*$AC5+Q$33*$AC6+Q$43*$AC7+Q$53*$AC8+Q$63*$AC11</f>
+        <f>Q$4*$AC3+Q$14*$AC4+Q$23*$AC5+Q$33*$AC6+Q$43*$AC7+Q$53*$AC8+Q$63*$AC9</f>
         <v>0.35210557170076917</v>
       </c>
       <c r="Z4" s="2">
-        <f>R$4*$AC3+R$14*$AC4+R$23*$AC5+R$33*$AC6+R$43*$AC7+R$53*$AC8+R$63*$AC11</f>
+        <f>R$4*$AC3+R$14*$AC4+R$23*$AC5+R$33*$AC6+R$43*$AC7+R$53*$AC8+R$63*$AC9</f>
         <v>0.35210557170076917</v>
       </c>
       <c r="AA4" s="2">
-        <f>S$4*$AC3+S$14*$AC4+S$23*$AC5+S$33*$AC6+S$43*$AC7+S$53*$AC8+S$63*$AC11</f>
+        <f>S$4*$AC3+S$14*$AC4+S$23*$AC5+S$33*$AC6+S$43*$AC7+S$53*$AC8+S$63*$AC9</f>
         <v>0.35210557170076917</v>
       </c>
       <c r="AC4" s="5">
-        <f t="shared" ref="AC4:AC11" si="1">AE4/$AE$12</f>
+        <f t="shared" si="0"/>
         <v>0.35210557170076917</v>
       </c>
       <c r="AD4">
         <v>2</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE11" si="2">EXP(-((AD4-$AF$3)^2/3))</f>
+        <f t="shared" ref="AE4:AE8" si="2">EXP(-((AD4-$AF$3)^2/3))</f>
         <v>0.71653131057378927</v>
       </c>
       <c r="AG4">
@@ -890,7 +890,7 @@
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5">
         <v>3</v>
       </c>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="17"/>
+      <c r="L5" s="16"/>
       <c r="M5">
         <v>3</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="S5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" s="17"/>
+      <c r="T5" s="16"/>
       <c r="U5">
         <v>3</v>
       </c>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <f>Q$5*$AC3+Q$15*$AC4+Q$24*$AC5+Q$34*$AC6+Q$44*$AC7+Q$54*$AC8+Q$64*$AC11</f>
+        <f>Q$5*$AC3+Q$15*$AC4+Q$24*$AC5+Q$34*$AC6+Q$44*$AC7+Q$54*$AC8+Q$64*$AC9</f>
         <v>0.35210557170076917</v>
       </c>
       <c r="Z5" s="2">
-        <f>R$5*$AC3+R$15*$AC4+R$24*$AC5+R$34*$AC6+R$44*$AC7+R$54*$AC8+R$64*$AC11</f>
+        <f>R$5*$AC3+R$15*$AC4+R$24*$AC5+R$34*$AC6+R$44*$AC7+R$54*$AC8+R$64*$AC9</f>
         <v>0.35210557170076917</v>
       </c>
       <c r="AA5" s="2">
-        <f>S$5*$AC3+S$15*$AC4+S$24*$AC5+S$34*$AC6+S$44*$AC7+S$54*$AC8+S$64*$AC11</f>
+        <f>S$5*$AC3+S$15*$AC4+S$24*$AC5+S$34*$AC6+S$44*$AC7+S$54*$AC8+S$64*$AC9</f>
         <v>0.35210557170076917</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.12953240095063018</v>
       </c>
       <c r="AD5">
@@ -1009,7 +1009,7 @@
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6">
         <v>4</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6" s="17"/>
+      <c r="L6" s="16"/>
       <c r="M6">
         <v>4</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="S6" s="2">
         <v>1</v>
       </c>
-      <c r="T6" s="17"/>
+      <c r="T6" s="16"/>
       <c r="U6">
         <v>4</v>
       </c>
@@ -1086,15 +1086,15 @@
         <v>0</v>
       </c>
       <c r="Z6" s="2">
-        <f>R$6*$AC3+R$16*$AC4+R$25*$AC5+R$35*$AC6+R$45*$AC7+R$55*$AC8+R$65*$AC11</f>
+        <f>R$6*$AC3+R$16*$AC4+R$25*$AC5+R$35*$AC6+R$45*$AC7+R$55*$AC8+R$65*$AC9</f>
         <v>0.97315900171941572</v>
       </c>
       <c r="AA6" s="2">
-        <f>S$6*$AC3+S$16*$AC4+S$25*$AC5+S$35*$AC6+S$45*$AC7+S$55*$AC8+S$65*$AC11</f>
+        <f>S$6*$AC3+S$16*$AC4+S$25*$AC5+S$35*$AC6+S$45*$AC7+S$55*$AC8+S$65*$AC9</f>
         <v>0.97304088345903383</v>
       </c>
       <c r="AC6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4465510316547045E-2</v>
       </c>
       <c r="AD6">
@@ -1132,7 +1132,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7">
         <v>5</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="17"/>
+      <c r="L7" s="16"/>
       <c r="M7">
         <v>5</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="S7" s="2">
         <v>1</v>
       </c>
-      <c r="T7" s="17"/>
+      <c r="T7" s="16"/>
       <c r="U7">
         <v>5</v>
       </c>
@@ -1214,11 +1214,11 @@
         <v>0</v>
       </c>
       <c r="AA7" s="2">
-        <f>S$7*$AC3+S$17*$AC4+S$26*$AC5+S$36*$AC6+S$46*$AC7+S$56*$AC8+S$66*$AC11</f>
+        <f>S$7*$AC3+S$17*$AC4+S$26*$AC5+S$36*$AC6+S$46*$AC7+S$56*$AC8+S$66*$AC9</f>
         <v>0.99988188173961845</v>
       </c>
       <c r="AC7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3724686802024711E-3</v>
       </c>
       <c r="AD7">
@@ -1256,7 +1256,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8">
         <v>6</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="17"/>
+      <c r="L8" s="16"/>
       <c r="M8">
         <v>6</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="17"/>
+      <c r="T8" s="16"/>
       <c r="U8">
         <v>6</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1811826038185626E-4</v>
       </c>
       <c r="AD8">
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>1</v>
@@ -1424,7 +1424,17 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="8"/>
-      <c r="AC9" s="5"/>
+      <c r="AC9" s="5">
+        <f t="shared" si="0"/>
+        <v>3.019283835045708E-6</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AE9">
+        <f>EXP(-((AD9-$AF$3)^2/3))</f>
+        <v>6.1442123533282098E-6</v>
+      </c>
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
@@ -1432,7 +1442,7 @@
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="10" t="s">
         <v>2</v>
@@ -1476,7 +1486,14 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="8"/>
-      <c r="AC10" s="5"/>
+      <c r="AC10">
+        <f>SUM(AC3:AC9)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AE10">
+        <f>SUM(AE3:AE9)</f>
+        <v>2.0349899807399838</v>
+      </c>
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
@@ -1484,19 +1501,6 @@
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AC11" s="5">
-        <f t="shared" si="1"/>
-        <v>3.019283835045708E-6</v>
-      </c>
-      <c r="AD11">
-        <v>7</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="2"/>
-        <v>6.1442123533282098E-6</v>
-      </c>
-    </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1</v>
@@ -1555,14 +1559,6 @@
       <c r="AA12">
         <v>6</v>
       </c>
-      <c r="AC12">
-        <f>SUM(AC3:AC11)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="AE12">
-        <f>SUM(AE3:AE11)</f>
-        <v>2.0349899807399838</v>
-      </c>
       <c r="AH12">
         <v>1</v>
       </c>
@@ -1583,7 +1579,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>2</v>
       </c>
       <c r="B13">
@@ -1612,7 +1608,7 @@
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="17">
+      <c r="L13" s="16">
         <v>2</v>
       </c>
       <c r="M13">
@@ -1636,7 +1632,7 @@
       <c r="S13" s="2">
         <v>1</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="16">
         <v>2</v>
       </c>
       <c r="U13">
@@ -1646,27 +1642,27 @@
         <v>0</v>
       </c>
       <c r="W13" s="2">
-        <f>O$3*$AC13+O$13*$AC14+O$22*$AC15+O$32*$AC16+O$42*$AC17+O$52*$AC18+O$62*$AC20</f>
+        <f>O$3*$AC13+O$13*$AC14+O$22*$AC15+O$32*$AC16+O$42*$AC17+O$52*$AC18+O$62*$AC19</f>
         <v>0.98006357046738346</v>
       </c>
       <c r="X13" s="2">
-        <f>P$3*$AC13+P$13*$AC14+P$22*$AC15+P$32*$AC16+P$42*$AC17+P$52*$AC18+P$62*$AC20</f>
+        <f>P$3*$AC13+P$13*$AC14+P$22*$AC15+P$32*$AC16+P$42*$AC17+P$52*$AC18+P$62*$AC19</f>
         <v>0.71965020827723958</v>
       </c>
       <c r="Y13" s="2">
-        <f>Q$3*$AC13+Q$13*$AC14+Q$22*$AC15+Q$32*$AC16+Q$42*$AC17+Q$52*$AC18+Q$62*$AC20</f>
+        <f>Q$3*$AC13+Q$13*$AC14+Q$22*$AC15+Q$32*$AC16+Q$42*$AC17+Q$52*$AC18+Q$62*$AC19</f>
         <v>0.36343612393100899</v>
       </c>
       <c r="Z13" s="2">
-        <f>R$3*$AC13+R$13*$AC14+R$22*$AC15+R$32*$AC16+R$42*$AC17+R$52*$AC18+R$62*$AC20</f>
+        <f>R$3*$AC13+R$13*$AC14+R$22*$AC15+R$32*$AC16+R$42*$AC17+R$52*$AC18+R$62*$AC19</f>
         <v>0.36343612393100899</v>
       </c>
       <c r="AA13" s="2">
-        <f>S$3*$AC13+S$13*$AC14+S$22*$AC15+S$32*$AC16+S$42*$AC17+S$52*$AC18+S$62*$AC20</f>
+        <f>S$3*$AC13+S$13*$AC14+S$22*$AC15+S$32*$AC16+S$42*$AC17+S$52*$AC18+S$62*$AC19</f>
         <v>0.36343612393100899</v>
       </c>
       <c r="AC13">
-        <f t="shared" ref="AC13:AC20" si="9">AE13/$AE$21</f>
+        <f t="shared" ref="AC13:AC19" si="9">AE13/$AE$20</f>
         <v>0.26041336219014394</v>
       </c>
       <c r="AD13">
@@ -1707,7 +1703,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14">
         <v>2</v>
       </c>
@@ -1734,7 +1730,7 @@
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="17"/>
+      <c r="L14" s="16"/>
       <c r="M14">
         <v>2</v>
       </c>
@@ -1757,7 +1753,7 @@
       <c r="S14" s="2">
         <v>1</v>
       </c>
-      <c r="T14" s="17"/>
+      <c r="T14" s="16"/>
       <c r="U14">
         <v>2</v>
       </c>
@@ -1769,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="X14" s="2">
-        <f>P$4*$AC13+P$14*$AC14+P$23*$AC15+P$33*$AC16+P$43*$AC17+P$53*$AC18+P$63*$AC20</f>
+        <f>P$4*$AC13+P$14*$AC14+P$23*$AC15+P$33*$AC16+P$43*$AC17+P$53*$AC18+P$63*$AC19</f>
         <v>0.73958663780985623</v>
       </c>
       <c r="Y14" s="2">
-        <f>Q$4*$AC13+Q$14*$AC14+Q$23*$AC15+Q$33*$AC16+Q$43*$AC17+Q$53*$AC18+Q$63*$AC20</f>
+        <f>Q$4*$AC13+Q$14*$AC14+Q$23*$AC15+Q$33*$AC16+Q$43*$AC17+Q$53*$AC18+Q$63*$AC19</f>
         <v>0.36343612393100899</v>
       </c>
       <c r="Z14" s="2">
-        <f>R$4*$AC13+R$14*$AC14+R$23*$AC15+R$33*$AC16+R$43*$AC17+R$53*$AC18+R$63*$AC20</f>
+        <f>R$4*$AC13+R$14*$AC14+R$23*$AC15+R$33*$AC16+R$43*$AC17+R$53*$AC18+R$63*$AC19</f>
         <v>0.36343612393100899</v>
       </c>
       <c r="AA14" s="2">
-        <f>S$4*$AC13+S$14*$AC14+S$23*$AC15+S$33*$AC16+S$43*$AC17+S$53*$AC18+S$63*$AC20</f>
+        <f>S$4*$AC13+S$14*$AC14+S$23*$AC15+S$33*$AC16+S$43*$AC17+S$53*$AC18+S$63*$AC19</f>
         <v>0.36343612393100899</v>
       </c>
       <c r="AC14">
@@ -1792,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="AE14">
-        <f t="shared" ref="AE14:AE20" si="11">EXP(-((AD14-$AF$13)^2/3))</f>
+        <f t="shared" ref="AE14:AE18" si="11">EXP(-((AD14-$AF$13)^2/3))</f>
         <v>1</v>
       </c>
       <c r="AG14">
@@ -1823,7 +1819,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15">
         <v>3</v>
       </c>
@@ -1850,7 +1846,7 @@
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="17"/>
+      <c r="L15" s="16"/>
       <c r="M15">
         <v>3</v>
       </c>
@@ -1874,7 +1870,7 @@
       <c r="S15" s="2">
         <v>1</v>
       </c>
-      <c r="T15" s="17"/>
+      <c r="T15" s="16"/>
       <c r="U15">
         <v>3</v>
       </c>
@@ -1890,15 +1886,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="2">
-        <f>Q$5*$AC13+Q$15*$AC14+Q$24*$AC15+Q$34*$AC16+Q$44*$AC17+Q$54*$AC18+Q$64*$AC20</f>
+        <f>Q$5*$AC13+Q$15*$AC14+Q$24*$AC15+Q$34*$AC16+Q$44*$AC17+Q$54*$AC18+Q$64*$AC19</f>
         <v>0.36343612393100899</v>
       </c>
       <c r="Z15" s="2">
-        <f>R$5*$AC13+R$15*$AC14+R$24*$AC15+R$34*$AC16+R$44*$AC17+R$54*$AC18+R$64*$AC20</f>
+        <f>R$5*$AC13+R$15*$AC14+R$24*$AC15+R$34*$AC16+R$44*$AC17+R$54*$AC18+R$64*$AC19</f>
         <v>0.36343612393100899</v>
       </c>
       <c r="AA15" s="2">
-        <f>S$5*$AC13+S$15*$AC14+S$24*$AC15+S$34*$AC16+S$44*$AC17+S$54*$AC18+S$64*$AC20</f>
+        <f>S$5*$AC13+S$15*$AC14+S$24*$AC15+S$34*$AC16+S$44*$AC17+S$54*$AC18+S$64*$AC19</f>
         <v>0.36343612393100899</v>
       </c>
       <c r="AC15">
@@ -1940,7 +1936,7 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16">
         <v>4</v>
       </c>
@@ -1970,7 +1966,7 @@
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="17"/>
+      <c r="L16" s="16"/>
       <c r="M16">
         <v>4</v>
       </c>
@@ -1995,7 +1991,7 @@
       <c r="S16" s="2">
         <v>1</v>
       </c>
-      <c r="T16" s="17"/>
+      <c r="T16" s="16"/>
       <c r="U16">
         <v>4</v>
       </c>
@@ -2015,11 +2011,11 @@
         <v>0</v>
       </c>
       <c r="Z16" s="2">
-        <f>R$6*$AC13+R$16*$AC14+R$25*$AC15+R$35*$AC16+R$45*$AC17+R$55*$AC18+R$65*$AC20</f>
+        <f>R$6*$AC13+R$16*$AC14+R$25*$AC15+R$35*$AC16+R$45*$AC17+R$55*$AC18+R$65*$AC19</f>
         <v>0.88601749974358768</v>
       </c>
       <c r="AA16" s="2">
-        <f>S$6*$AC13+S$16*$AC14+S$25*$AC15+S$35*$AC16+S$45*$AC17+S$55*$AC18+S$65*$AC20</f>
+        <f>S$6*$AC13+S$16*$AC14+S$25*$AC15+S$35*$AC16+S$45*$AC17+S$55*$AC18+S$65*$AC19</f>
         <v>0.88426284831129687</v>
       </c>
       <c r="AC16">
@@ -2061,7 +2057,7 @@
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17">
         <v>5</v>
       </c>
@@ -2091,7 +2087,7 @@
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="17"/>
+      <c r="L17" s="16"/>
       <c r="M17">
         <v>5</v>
       </c>
@@ -2117,7 +2113,7 @@
       <c r="S17" s="2">
         <v>1</v>
       </c>
-      <c r="T17" s="17"/>
+      <c r="T17" s="16"/>
       <c r="U17">
         <v>5</v>
       </c>
@@ -2141,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="2">
-        <f>S$7*$AC13+S$17*$AC14+S$26*$AC15+S$36*$AC16+S$46*$AC17+S$56*$AC18+S$66*$AC20</f>
+        <f>S$7*$AC13+S$17*$AC14+S$26*$AC15+S$36*$AC16+S$46*$AC17+S$56*$AC18+S$66*$AC19</f>
         <v>0.9982453485677093</v>
       </c>
       <c r="AC17">
@@ -2183,7 +2179,7 @@
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18">
         <v>6</v>
       </c>
@@ -2213,7 +2209,7 @@
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="17"/>
+      <c r="L18" s="16"/>
       <c r="M18">
         <v>6</v>
       </c>
@@ -2240,7 +2236,7 @@
       <c r="S18" s="1">
         <v>0</v>
       </c>
-      <c r="T18" s="17"/>
+      <c r="T18" s="16"/>
       <c r="U18">
         <v>6</v>
       </c>
@@ -2347,6 +2343,17 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="8"/>
+      <c r="AC19">
+        <f t="shared" si="9"/>
+        <v>8.735895082123426E-5</v>
+      </c>
+      <c r="AD19">
+        <v>7</v>
+      </c>
+      <c r="AE19">
+        <f>EXP(-((AD19-$AF$13)^2/3))</f>
+        <v>2.4036947641951407E-4</v>
+      </c>
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
@@ -2356,15 +2363,12 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AC20">
-        <f t="shared" si="9"/>
-        <v>8.735895082123426E-5</v>
-      </c>
-      <c r="AD20">
-        <v>7</v>
+        <f>SUM(AC13:AC19)</f>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="11"/>
-        <v>2.4036947641951407E-4</v>
+        <f>SUM(AE13:AE19)</f>
+        <v>2.7515151471014199</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
@@ -2428,14 +2432,6 @@
       <c r="AA21">
         <v>6</v>
       </c>
-      <c r="AC21">
-        <f>SUM(AC13:AC20)</f>
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <f>SUM(AE13:AE20)</f>
-        <v>2.7515151471014199</v>
-      </c>
       <c r="AH21">
         <v>1</v>
       </c>
@@ -2456,7 +2452,7 @@
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>3</v>
       </c>
       <c r="B22">
@@ -2487,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="7"/>
-      <c r="L22" s="17">
+      <c r="L22" s="16">
         <v>3</v>
       </c>
       <c r="M22">
@@ -2511,7 +2507,7 @@
       <c r="S22" s="2">
         <v>0</v>
       </c>
-      <c r="T22" s="17">
+      <c r="T22" s="16">
         <v>3</v>
       </c>
       <c r="U22">
@@ -2521,27 +2517,27 @@
         <v>0</v>
       </c>
       <c r="W22" s="2">
-        <f>O$3*$AC22+O$13*$AC23+O$22*$AC24+O$32*$AC25+O$42*$AC26+O$52*$AC27+O$62*$AC30</f>
+        <f>O$3*$AC22+O$13*$AC23+O$22*$AC24+O$32*$AC25+O$42*$AC26+O$52*$AC27+O$62*$AC28</f>
         <v>0.89445251228882128</v>
       </c>
       <c r="X22" s="2">
-        <f>P$3*$AC22+P$13*$AC23+P$22*$AC24+P$32*$AC25+P$42*$AC26+P$52*$AC27+P$62*$AC30</f>
+        <f>P$3*$AC22+P$13*$AC23+P$22*$AC24+P$32*$AC25+P$42*$AC26+P$52*$AC27+P$62*$AC28</f>
         <v>0.56276346282075829</v>
       </c>
       <c r="Y22" s="2">
-        <f>Q$3*$AC22+Q$13*$AC23+Q$22*$AC24+Q$32*$AC25+Q$42*$AC26+Q$52*$AC27+Q$62*$AC30</f>
+        <f>Q$3*$AC22+Q$13*$AC23+Q$22*$AC24+Q$32*$AC25+Q$42*$AC26+Q$52*$AC27+Q$62*$AC28</f>
         <v>0.2376655893183256</v>
       </c>
       <c r="Z22" s="2">
-        <f>R$3*$AC22+R$13*$AC23+R$22*$AC24+R$32*$AC25+R$42*$AC26+R$52*$AC27+R$62*$AC30</f>
+        <f>R$3*$AC22+R$13*$AC23+R$22*$AC24+R$32*$AC25+R$42*$AC26+R$52*$AC27+R$62*$AC28</f>
         <v>0.2376655893183256</v>
       </c>
       <c r="AA22" s="2">
-        <f>S$3*$AC22+S$13*$AC23+S$22*$AC24+S$32*$AC25+S$42*$AC26+S$52*$AC27+S$62*$AC30</f>
+        <f>S$3*$AC22+S$13*$AC23+S$22*$AC24+S$32*$AC25+S$42*$AC26+S$52*$AC27+S$62*$AC28</f>
         <v>0.2376655893183256</v>
       </c>
       <c r="AC22">
-        <f t="shared" ref="AC22:AC27" si="18">AE22/$AE$31</f>
+        <f t="shared" ref="AC22:AC28" si="18">AE22/$AE$29</f>
         <v>8.7432284184107131E-2</v>
       </c>
       <c r="AD22">
@@ -2582,7 +2578,7 @@
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23">
         <v>2</v>
       </c>
@@ -2611,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="7"/>
-      <c r="L23" s="17"/>
+      <c r="L23" s="16"/>
       <c r="M23">
         <v>2</v>
       </c>
@@ -2634,7 +2630,7 @@
       <c r="S23" s="2">
         <v>0</v>
       </c>
-      <c r="T23" s="17"/>
+      <c r="T23" s="16"/>
       <c r="U23">
         <v>2</v>
       </c>
@@ -2646,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="X23" s="2">
-        <f>P$4*$AC22+P$14*$AC23+P$23*$AC24+P$33*$AC25+P$43*$AC26+P$53*$AC27+P$63*$AC30</f>
+        <f>P$4*$AC22+P$14*$AC23+P$23*$AC24+P$33*$AC25+P$43*$AC26+P$53*$AC27+P$63*$AC28</f>
         <v>0.6683109505319369</v>
       </c>
       <c r="Y23" s="2">
-        <f>Q$4*$AC22+Q$14*$AC23+Q$23*$AC24+Q$33*$AC25+Q$43*$AC26+Q$53*$AC27+Q$63*$AC30</f>
+        <f>Q$4*$AC22+Q$14*$AC23+Q$23*$AC24+Q$33*$AC25+Q$43*$AC26+Q$53*$AC27+Q$63*$AC28</f>
         <v>0.2376655893183256</v>
       </c>
       <c r="Z23" s="2">
-        <f>R$4*$AC22+R$14*$AC23+R$23*$AC24+R$33*$AC25+R$43*$AC26+R$53*$AC27+R$63*$AC30</f>
+        <f>R$4*$AC22+R$14*$AC23+R$23*$AC24+R$33*$AC25+R$43*$AC26+R$53*$AC27+R$63*$AC28</f>
         <v>0.2376655893183256</v>
       </c>
       <c r="AA23" s="2">
-        <f>S$4*$AC22+S$14*$AC23+S$23*$AC24+S$33*$AC25+S$43*$AC26+S$53*$AC27+S$63*$AC30</f>
+        <f>S$4*$AC22+S$14*$AC23+S$23*$AC24+S$33*$AC25+S$43*$AC26+S$53*$AC27+S$63*$AC28</f>
         <v>0.2376655893183256</v>
       </c>
       <c r="AC23">
@@ -2669,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="AE23">
-        <f t="shared" ref="AE23:AE30" si="23">EXP(-((AD23-$AF$22)^2/3))</f>
+        <f t="shared" ref="AE23:AE27" si="23">EXP(-((AD23-$AF$22)^2/3))</f>
         <v>0.71653131057378927</v>
       </c>
       <c r="AG23">
@@ -2700,7 +2696,7 @@
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="16"/>
       <c r="B24">
         <v>3</v>
       </c>
@@ -2729,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="17"/>
+      <c r="L24" s="16"/>
       <c r="M24">
         <v>3</v>
       </c>
@@ -2753,7 +2749,7 @@
       <c r="S24" s="2">
         <v>0</v>
       </c>
-      <c r="T24" s="17"/>
+      <c r="T24" s="16"/>
       <c r="U24">
         <v>3</v>
       </c>
@@ -2769,15 +2765,15 @@
         <v>0</v>
       </c>
       <c r="Y24" s="2">
-        <f>Q$5*$AC22+Q$15*$AC23+Q$24*$AC24+Q$34*$AC25+Q$44*$AC26+Q$54*$AC27+Q$64*$AC30</f>
+        <f>Q$5*$AC22+Q$15*$AC23+Q$24*$AC24+Q$34*$AC25+Q$44*$AC26+Q$54*$AC27+Q$64*$AC28</f>
         <v>0.2376655893183256</v>
       </c>
       <c r="Z24" s="2">
-        <f>R$5*$AC22+R$15*$AC23+R$24*$AC24+R$34*$AC25+R$44*$AC26+R$54*$AC27+R$64*$AC30</f>
+        <f>R$5*$AC22+R$15*$AC23+R$24*$AC24+R$34*$AC25+R$44*$AC26+R$54*$AC27+R$64*$AC28</f>
         <v>0.2376655893183256</v>
       </c>
       <c r="AA24" s="2">
-        <f>S$5*$AC22+S$15*$AC23+S$24*$AC24+S$34*$AC25+S$44*$AC26+S$54*$AC27+S$64*$AC30</f>
+        <f>S$5*$AC22+S$15*$AC23+S$24*$AC24+S$34*$AC25+S$44*$AC26+S$54*$AC27+S$64*$AC28</f>
         <v>0.2376655893183256</v>
       </c>
       <c r="AC24">
@@ -2819,7 +2815,7 @@
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="16"/>
       <c r="B25">
         <v>4</v>
       </c>
@@ -2851,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="7"/>
-      <c r="L25" s="17"/>
+      <c r="L25" s="16"/>
       <c r="M25">
         <v>4</v>
       </c>
@@ -2876,7 +2872,7 @@
       <c r="S25" s="2">
         <v>1</v>
       </c>
-      <c r="T25" s="17"/>
+      <c r="T25" s="16"/>
       <c r="U25">
         <v>4</v>
       </c>
@@ -2896,11 +2892,11 @@
         <v>0</v>
       </c>
       <c r="Z25" s="2">
-        <f>R$6*$AC22+R$16*$AC23+R$25*$AC24+R$35*$AC25+R$45*$AC26+R$55*$AC27+R$65*$AC30</f>
+        <f>R$6*$AC22+R$16*$AC23+R$25*$AC24+R$35*$AC25+R$45*$AC26+R$55*$AC27+R$65*$AC28</f>
         <v>0.67330074835323395</v>
       </c>
       <c r="AA25" s="2">
-        <f>S$6*$AC22+S$16*$AC23+S$25*$AC24+S$35*$AC25+S$45*$AC26+S$55*$AC27+S$65*$AC30</f>
+        <f>S$6*$AC22+S$16*$AC23+S$25*$AC24+S$35*$AC25+S$45*$AC26+S$55*$AC27+S$65*$AC28</f>
         <v>0.65678692297049568</v>
       </c>
       <c r="AC25">
@@ -2942,7 +2938,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26">
         <v>5</v>
       </c>
@@ -2974,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="7"/>
-      <c r="L26" s="17"/>
+      <c r="L26" s="16"/>
       <c r="M26">
         <v>5</v>
       </c>
@@ -3000,7 +2996,7 @@
       <c r="S26" s="2">
         <v>1</v>
       </c>
-      <c r="T26" s="17"/>
+      <c r="T26" s="16"/>
       <c r="U26">
         <v>5</v>
       </c>
@@ -3024,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="2">
-        <f>S$7*$AC22+S$17*$AC23+S$26*$AC24+S$36*$AC25+S$46*$AC26+S$56*$AC27+S$66*$AC30</f>
+        <f>S$7*$AC22+S$17*$AC23+S$26*$AC24+S$36*$AC25+S$46*$AC26+S$56*$AC27+S$66*$AC28</f>
         <v>0.98348617461726162</v>
       </c>
       <c r="AC26">
@@ -3066,7 +3062,7 @@
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="B27">
         <v>6</v>
       </c>
@@ -3098,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="8"/>
-      <c r="L27" s="17"/>
+      <c r="L27" s="16"/>
       <c r="M27">
         <v>6</v>
       </c>
@@ -3125,7 +3121,7 @@
       <c r="S27" s="1">
         <v>0</v>
       </c>
-      <c r="T27" s="17"/>
+      <c r="T27" s="16"/>
       <c r="U27">
         <v>6</v>
       </c>
@@ -3234,6 +3230,17 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="8"/>
+      <c r="AC28">
+        <f t="shared" si="18"/>
+        <v>1.6013781443332913E-3</v>
+      </c>
+      <c r="AD28">
+        <v>7</v>
+      </c>
+      <c r="AE28">
+        <f>EXP(-((AD28-$AF$22)^2/3))</f>
+        <v>4.8279499938314414E-3</v>
+      </c>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
@@ -3285,6 +3292,14 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="8"/>
+      <c r="AC29">
+        <f>SUM(AC22:AC28)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AE29">
+        <f>SUM(AE22:AE28)</f>
+        <v>3.0148719157407275</v>
+      </c>
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7"/>
@@ -3292,19 +3307,6 @@
       <c r="AL29" s="7"/>
       <c r="AM29" s="7"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AC30">
-        <f>AE30/$AE$31</f>
-        <v>1.6013781443332913E-3</v>
-      </c>
-      <c r="AD30">
-        <v>7</v>
-      </c>
-      <c r="AE30">
-        <f t="shared" si="23"/>
-        <v>4.8279499938314414E-3</v>
-      </c>
-    </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>1</v>
@@ -3366,14 +3368,6 @@
       <c r="AA31">
         <v>6</v>
       </c>
-      <c r="AC31">
-        <f>SUM(AC22:AC30)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AE31">
-        <f>SUM(AE22:AE30)</f>
-        <v>3.0148719157407275</v>
-      </c>
       <c r="AH31">
         <v>1</v>
       </c>
@@ -3394,7 +3388,7 @@
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="16">
         <v>4</v>
       </c>
       <c r="B32">
@@ -3425,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="7"/>
-      <c r="L32" s="17">
+      <c r="L32" s="16">
         <v>4</v>
       </c>
       <c r="M32">
@@ -3449,7 +3443,7 @@
       <c r="S32" s="2">
         <v>0</v>
       </c>
-      <c r="T32" s="17">
+      <c r="T32" s="16">
         <v>4</v>
       </c>
       <c r="U32">
@@ -3459,27 +3453,27 @@
         <v>0</v>
       </c>
       <c r="W32" s="2">
-        <f>O$3*$AC32+O$13*$AC33+O$22*$AC34+O$32*$AC35+O$42*$AC36+O$52*$AC37+O$62*$AC40</f>
+        <f>O$3*$AC32+O$13*$AC33+O$22*$AC34+O$32*$AC35+O$42*$AC36+O$52*$AC37+O$62*$AC38</f>
         <v>0.66340771579390667</v>
       </c>
       <c r="X32" s="2">
-        <f>P$3*$AC32+P$13*$AC33+P$22*$AC34+P$32*$AC35+P$42*$AC36+P$52*$AC37+P$62*$AC40</f>
+        <f>P$3*$AC32+P$13*$AC33+P$22*$AC34+P$32*$AC35+P$42*$AC36+P$52*$AC37+P$62*$AC38</f>
         <v>0.42923422628255226</v>
       </c>
       <c r="Y32" s="2">
-        <f>Q$3*$AC32+Q$13*$AC33+Q$22*$AC34+Q$32*$AC35+Q$42*$AC36+Q$52*$AC37+Q$62*$AC40</f>
+        <f>Q$3*$AC32+Q$13*$AC33+Q$22*$AC34+Q$32*$AC35+Q$42*$AC36+Q$52*$AC37+Q$62*$AC38</f>
         <v>8.6147612458603653E-2</v>
       </c>
       <c r="Z32" s="2">
-        <f>R$3*$AC32+R$13*$AC33+R$22*$AC34+R$32*$AC35+R$42*$AC36+R$52*$AC37+R$62*$AC40</f>
+        <f>R$3*$AC32+R$13*$AC33+R$22*$AC34+R$32*$AC35+R$42*$AC36+R$52*$AC37+R$62*$AC38</f>
         <v>8.6147612458603653E-2</v>
       </c>
       <c r="AA32" s="2">
-        <f>S$3*$AC32+S$13*$AC33+S$22*$AC34+S$32*$AC35+S$42*$AC36+S$52*$AC37+S$62*$AC40</f>
+        <f>S$3*$AC32+S$13*$AC33+S$22*$AC34+S$32*$AC35+S$42*$AC36+S$52*$AC37+S$62*$AC38</f>
         <v>8.6147612458603653E-2</v>
       </c>
       <c r="AC32">
-        <f t="shared" ref="AC32:AC40" si="29">AE32/$AE$41</f>
+        <f t="shared" ref="AC32:AC38" si="29">AE32/$AE$39</f>
         <v>1.6271182236135419E-2</v>
       </c>
       <c r="AD32">
@@ -3520,7 +3514,7 @@
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="16"/>
       <c r="B33">
         <v>2</v>
       </c>
@@ -3549,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="7"/>
-      <c r="L33" s="17"/>
+      <c r="L33" s="16"/>
       <c r="M33">
         <v>2</v>
       </c>
@@ -3572,7 +3566,7 @@
       <c r="S33" s="2">
         <v>0</v>
       </c>
-      <c r="T33" s="17"/>
+      <c r="T33" s="16"/>
       <c r="U33">
         <v>2</v>
       </c>
@@ -3584,19 +3578,19 @@
         <v>0</v>
       </c>
       <c r="X33" s="2">
-        <f>P$4*$AC32+P$14*$AC33+P$23*$AC34+P$33*$AC35+P$43*$AC36+P$53*$AC37+P$63*$AC40</f>
+        <f>P$4*$AC32+P$14*$AC33+P$23*$AC34+P$33*$AC35+P$43*$AC36+P$53*$AC37+P$63*$AC38</f>
         <v>0.76582651048864581</v>
       </c>
       <c r="Y33" s="2">
-        <f>Q$4*$AC32+Q$14*$AC33+Q$23*$AC34+Q$33*$AC35+Q$43*$AC36+Q$53*$AC37+Q$63*$AC40</f>
+        <f>Q$4*$AC32+Q$14*$AC33+Q$23*$AC34+Q$33*$AC35+Q$43*$AC36+Q$53*$AC37+Q$63*$AC38</f>
         <v>8.6147612458603653E-2</v>
       </c>
       <c r="Z33" s="2">
-        <f>R$4*$AC32+R$14*$AC33+R$23*$AC34+R$33*$AC35+R$43*$AC36+R$53*$AC37+R$63*$AC40</f>
+        <f>R$4*$AC32+R$14*$AC33+R$23*$AC34+R$33*$AC35+R$43*$AC36+R$53*$AC37+R$63*$AC38</f>
         <v>8.6147612458603653E-2</v>
       </c>
       <c r="AA33" s="2">
-        <f>S$4*$AC32+S$14*$AC33+S$23*$AC34+S$33*$AC35+S$43*$AC36+S$53*$AC37+S$63*$AC40</f>
+        <f>S$4*$AC32+S$14*$AC33+S$23*$AC34+S$33*$AC35+S$43*$AC36+S$53*$AC37+S$63*$AC38</f>
         <v>8.6147612458603653E-2</v>
       </c>
       <c r="AC33">
@@ -3607,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="AE33">
-        <f t="shared" ref="AE33:AE40" si="34">EXP(-((AD33-$AF$32)^2/3))</f>
+        <f t="shared" ref="AE33:AE37" si="34">EXP(-((AD33-$AF$32)^2/3))</f>
         <v>0.26359713811572677</v>
       </c>
       <c r="AG33">
@@ -3638,7 +3632,7 @@
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="16"/>
       <c r="B34">
         <v>3</v>
       </c>
@@ -3667,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="7"/>
-      <c r="L34" s="17"/>
+      <c r="L34" s="16"/>
       <c r="M34">
         <v>3</v>
       </c>
@@ -3691,7 +3685,7 @@
       <c r="S34" s="2">
         <v>0</v>
       </c>
-      <c r="T34" s="17"/>
+      <c r="T34" s="16"/>
       <c r="U34">
         <v>3</v>
       </c>
@@ -3707,15 +3701,15 @@
         <v>0</v>
       </c>
       <c r="Y34" s="2">
-        <f>Q$5*$AC32+Q$15*$AC33+Q$24*$AC34+Q$34*$AC35+Q$44*$AC36+Q$54*$AC37+Q$64*$AC40</f>
+        <f>Q$5*$AC32+Q$15*$AC33+Q$24*$AC34+Q$34*$AC35+Q$44*$AC36+Q$54*$AC37+Q$64*$AC38</f>
         <v>8.6147612458603653E-2</v>
       </c>
       <c r="Z34" s="2">
-        <f>R$5*$AC32+R$15*$AC33+R$24*$AC34+R$34*$AC35+R$44*$AC36+R$54*$AC37+R$64*$AC40</f>
+        <f>R$5*$AC32+R$15*$AC33+R$24*$AC34+R$34*$AC35+R$44*$AC36+R$54*$AC37+R$64*$AC38</f>
         <v>8.6147612458603653E-2</v>
       </c>
       <c r="AA34" s="2">
-        <f>S$5*$AC32+S$15*$AC33+S$24*$AC34+S$34*$AC35+S$44*$AC36+S$54*$AC37+S$64*$AC40</f>
+        <f>S$5*$AC32+S$15*$AC33+S$24*$AC34+S$34*$AC35+S$44*$AC36+S$54*$AC37+S$64*$AC38</f>
         <v>8.6147612458603653E-2</v>
       </c>
       <c r="AC34">
@@ -3757,7 +3751,7 @@
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="16"/>
       <c r="B35">
         <v>4</v>
       </c>
@@ -3789,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="7"/>
-      <c r="L35" s="17"/>
+      <c r="L35" s="16"/>
       <c r="M35">
         <v>4</v>
       </c>
@@ -3814,7 +3808,7 @@
       <c r="S35" s="2">
         <v>0</v>
       </c>
-      <c r="T35" s="17"/>
+      <c r="T35" s="16"/>
       <c r="U35">
         <v>4</v>
       </c>
@@ -3834,11 +3828,11 @@
         <v>0</v>
       </c>
       <c r="Z35" s="2">
-        <f>R$6*$AC32+R$16*$AC33+R$25*$AC34+R$35*$AC35+R$45*$AC36+R$55*$AC37+R$65*$AC40</f>
+        <f>R$6*$AC32+R$16*$AC33+R$25*$AC34+R$35*$AC35+R$45*$AC36+R$55*$AC37+R$65*$AC38</f>
         <v>0.42273989666469708</v>
       </c>
       <c r="AA35" s="2">
-        <f>S$6*$AC32+S$16*$AC33+S$25*$AC34+S$35*$AC35+S$45*$AC36+S$55*$AC37+S$65*$AC40</f>
+        <f>S$6*$AC32+S$16*$AC33+S$25*$AC34+S$35*$AC35+S$45*$AC36+S$55*$AC37+S$65*$AC38</f>
         <v>0.33659228420609344</v>
       </c>
       <c r="AC35">
@@ -3880,7 +3874,7 @@
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="16"/>
       <c r="B36">
         <v>5</v>
       </c>
@@ -3912,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="7"/>
-      <c r="L36" s="17"/>
+      <c r="L36" s="16"/>
       <c r="M36">
         <v>5</v>
       </c>
@@ -3938,7 +3932,7 @@
       <c r="S36" s="2">
         <v>1</v>
       </c>
-      <c r="T36" s="17"/>
+      <c r="T36" s="16"/>
       <c r="U36">
         <v>5</v>
       </c>
@@ -3962,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="2">
-        <f>S$7*$AC32+S$17*$AC33+S$26*$AC34+S$36*$AC35+S$46*$AC36+S$56*$AC37+S$66*$AC40</f>
+        <f>S$7*$AC32+S$17*$AC33+S$26*$AC34+S$36*$AC35+S$46*$AC36+S$56*$AC37+S$66*$AC38</f>
         <v>0.91385238754139642</v>
       </c>
       <c r="AC36">
@@ -4004,7 +3998,7 @@
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="16"/>
       <c r="B37">
         <v>6</v>
       </c>
@@ -4036,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="9"/>
-      <c r="L37" s="17"/>
+      <c r="L37" s="16"/>
       <c r="M37">
         <v>6</v>
       </c>
@@ -4063,7 +4057,7 @@
       <c r="S37" s="3">
         <v>0</v>
       </c>
-      <c r="T37" s="17"/>
+      <c r="T37" s="16"/>
       <c r="U37">
         <v>6</v>
       </c>
@@ -4172,6 +4166,17 @@
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="8"/>
+      <c r="AC38">
+        <f t="shared" si="29"/>
+        <v>1.6271182236135419E-2</v>
+      </c>
+      <c r="AD38">
+        <v>7</v>
+      </c>
+      <c r="AE38">
+        <f>EXP(-((AD38-$AF$32)^2/3))</f>
+        <v>4.9787068367863944E-2</v>
+      </c>
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
       <c r="AJ38" s="7"/>
@@ -4223,6 +4228,14 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="8"/>
+      <c r="AC39">
+        <f>SUM(AC32:AC38)</f>
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <f>SUM(AE32:AE38)</f>
+        <v>3.0598310341147599</v>
+      </c>
       <c r="AH39" s="7"/>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="7"/>
@@ -4230,19 +4243,6 @@
       <c r="AL39" s="7"/>
       <c r="AM39" s="7"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AC40">
-        <f t="shared" si="29"/>
-        <v>1.6271182236135419E-2</v>
-      </c>
-      <c r="AD40">
-        <v>7</v>
-      </c>
-      <c r="AE40">
-        <f t="shared" si="34"/>
-        <v>4.9787068367863944E-2</v>
-      </c>
-    </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>1</v>
@@ -4304,14 +4304,6 @@
       <c r="AA41">
         <v>6</v>
       </c>
-      <c r="AC41">
-        <f>SUM(AC32:AC40)</f>
-        <v>1</v>
-      </c>
-      <c r="AE41">
-        <f>SUM(AE32:AE40)</f>
-        <v>3.0598310341147599</v>
-      </c>
       <c r="AH41">
         <v>1</v>
       </c>
@@ -4332,7 +4324,7 @@
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="A42" s="16">
         <v>5</v>
       </c>
       <c r="B42">
@@ -4363,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="7"/>
-      <c r="L42" s="17">
+      <c r="L42" s="16">
         <v>5</v>
       </c>
       <c r="M42">
@@ -4387,7 +4379,7 @@
       <c r="S42" s="2">
         <v>0</v>
       </c>
-      <c r="T42" s="17">
+      <c r="T42" s="16">
         <v>5</v>
       </c>
       <c r="U42">
@@ -4397,27 +4389,27 @@
         <v>0</v>
       </c>
       <c r="W42" s="2">
-        <f>O$3*$AC42+O$13*$AC43+O$22*$AC44+O$32*$AC45+O$42*$AC46+O$52*$AC47+O$62*$AC50</f>
+        <f>O$3*$AC42+O$13*$AC43+O$22*$AC44+O$32*$AC45+O$42*$AC46+O$52*$AC47+O$62*$AC48</f>
         <v>0.34321307702950427</v>
       </c>
       <c r="X42" s="2">
-        <f>P$3*$AC42+P$13*$AC43+P$22*$AC44+P$32*$AC45+P$42*$AC46+P$52*$AC47+P$62*$AC50</f>
+        <f>P$3*$AC42+P$13*$AC43+P$22*$AC44+P$32*$AC45+P$42*$AC46+P$52*$AC47+P$62*$AC48</f>
         <v>0.25578079284539712</v>
       </c>
       <c r="Y42" s="2">
-        <f>Q$3*$AC42+Q$13*$AC43+Q$22*$AC44+Q$32*$AC45+Q$42*$AC46+Q$52*$AC47+Q$62*$AC50</f>
+        <f>Q$3*$AC42+Q$13*$AC43+Q$22*$AC44+Q$32*$AC45+Q$42*$AC46+Q$52*$AC47+Q$62*$AC48</f>
         <v>1.6513825382738257E-2</v>
       </c>
       <c r="Z42" s="2">
-        <f>R$3*$AC42+R$13*$AC43+R$22*$AC44+R$32*$AC45+R$42*$AC46+R$52*$AC47+R$62*$AC50</f>
+        <f>R$3*$AC42+R$13*$AC43+R$22*$AC44+R$32*$AC45+R$42*$AC46+R$52*$AC47+R$62*$AC48</f>
         <v>1.6513825382738257E-2</v>
       </c>
       <c r="AA42" s="2">
-        <f>S$3*$AC42+S$13*$AC43+S$22*$AC44+S$32*$AC45+S$42*$AC46+S$52*$AC47+S$62*$AC50</f>
+        <f>S$3*$AC42+S$13*$AC43+S$22*$AC44+S$32*$AC45+S$42*$AC46+S$52*$AC47+S$62*$AC48</f>
         <v>1.6513825382738257E-2</v>
       </c>
       <c r="AC42">
-        <f t="shared" ref="AC42:AC50" si="40">AE42/$AE$51</f>
+        <f t="shared" ref="AC42:AC48" si="40">AE42/$AE$49</f>
         <v>1.6013781443332913E-3</v>
       </c>
       <c r="AD42">
@@ -4458,7 +4450,7 @@
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="A43" s="16"/>
       <c r="B43">
         <v>2</v>
       </c>
@@ -4487,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="7"/>
-      <c r="L43" s="17"/>
+      <c r="L43" s="16"/>
       <c r="M43">
         <v>2</v>
       </c>
@@ -4510,7 +4502,7 @@
       <c r="S43" s="2">
         <v>0</v>
       </c>
-      <c r="T43" s="17"/>
+      <c r="T43" s="16"/>
       <c r="U43">
         <v>2</v>
       </c>
@@ -4522,19 +4514,19 @@
         <v>0</v>
       </c>
       <c r="X43" s="2">
-        <f>P$4*$AC42+P$14*$AC43+P$23*$AC44+P$33*$AC45+P$43*$AC46+P$53*$AC47+P$63*$AC50</f>
+        <f>P$4*$AC42+P$14*$AC43+P$23*$AC44+P$33*$AC45+P$43*$AC46+P$53*$AC47+P$63*$AC48</f>
         <v>0.9125677158158928</v>
       </c>
       <c r="Y43" s="2">
-        <f>Q$4*$AC42+Q$14*$AC43+Q$23*$AC44+Q$33*$AC45+Q$43*$AC46+Q$53*$AC47+Q$63*$AC50</f>
+        <f>Q$4*$AC42+Q$14*$AC43+Q$23*$AC44+Q$33*$AC45+Q$43*$AC46+Q$53*$AC47+Q$63*$AC48</f>
         <v>1.6513825382738257E-2</v>
       </c>
       <c r="Z43" s="2">
-        <f>R$4*$AC42+R$14*$AC43+R$23*$AC44+R$33*$AC45+R$43*$AC46+R$53*$AC47+R$63*$AC50</f>
+        <f>R$4*$AC42+R$14*$AC43+R$23*$AC44+R$33*$AC45+R$43*$AC46+R$53*$AC47+R$63*$AC48</f>
         <v>1.6513825382738257E-2</v>
       </c>
       <c r="AA43" s="2">
-        <f>S$4*$AC42+S$14*$AC43+S$23*$AC44+S$33*$AC45+S$43*$AC46+S$53*$AC47+S$63*$AC50</f>
+        <f>S$4*$AC42+S$14*$AC43+S$23*$AC44+S$33*$AC45+S$43*$AC46+S$53*$AC47+S$63*$AC48</f>
         <v>1.6513825382738257E-2</v>
       </c>
       <c r="AC43">
@@ -4545,7 +4537,7 @@
         <v>2</v>
       </c>
       <c r="AE43">
-        <f t="shared" ref="AE43:AE50" si="45">EXP(-((AD43-$AF$42)^2/3))</f>
+        <f t="shared" ref="AE43:AE47" si="45">EXP(-((AD43-$AF$42)^2/3))</f>
         <v>4.9787068367863944E-2</v>
       </c>
       <c r="AF43" s="5"/>
@@ -4577,7 +4569,7 @@
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="A44" s="16"/>
       <c r="B44">
         <v>3</v>
       </c>
@@ -4606,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="7"/>
-      <c r="L44" s="17"/>
+      <c r="L44" s="16"/>
       <c r="M44">
         <v>3</v>
       </c>
@@ -4630,7 +4622,7 @@
       <c r="S44" s="2">
         <v>0</v>
       </c>
-      <c r="T44" s="17"/>
+      <c r="T44" s="16"/>
       <c r="U44">
         <v>3</v>
       </c>
@@ -4646,15 +4638,15 @@
         <v>0</v>
       </c>
       <c r="Y44" s="2">
-        <f>Q$5*$AC42+Q$15*$AC43+Q$24*$AC44+Q$34*$AC45+Q$44*$AC46+Q$54*$AC47+Q$64*$AC50</f>
+        <f>Q$5*$AC42+Q$15*$AC43+Q$24*$AC44+Q$34*$AC45+Q$44*$AC46+Q$54*$AC47+Q$64*$AC48</f>
         <v>1.6513825382738257E-2</v>
       </c>
       <c r="Z44" s="2">
-        <f>R$5*$AC42+R$15*$AC43+R$24*$AC44+R$34*$AC45+R$44*$AC46+R$54*$AC47+R$64*$AC50</f>
+        <f>R$5*$AC42+R$15*$AC43+R$24*$AC44+R$34*$AC45+R$44*$AC46+R$54*$AC47+R$64*$AC48</f>
         <v>1.6513825382738257E-2</v>
       </c>
       <c r="AA44" s="2">
-        <f>S$5*$AC42+S$15*$AC43+S$24*$AC44+S$34*$AC45+S$44*$AC46+S$54*$AC47+S$64*$AC50</f>
+        <f>S$5*$AC42+S$15*$AC43+S$24*$AC44+S$34*$AC45+S$44*$AC46+S$54*$AC47+S$64*$AC48</f>
         <v>1.6513825382738257E-2</v>
       </c>
       <c r="AC44">
@@ -4697,7 +4689,7 @@
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="16"/>
       <c r="B45">
         <v>4</v>
       </c>
@@ -4729,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="7"/>
-      <c r="L45" s="17"/>
+      <c r="L45" s="16"/>
       <c r="M45">
         <v>4</v>
       </c>
@@ -4754,7 +4746,7 @@
       <c r="S45" s="2">
         <v>0</v>
       </c>
-      <c r="T45" s="17"/>
+      <c r="T45" s="16"/>
       <c r="U45">
         <v>4</v>
       </c>
@@ -4774,11 +4766,11 @@
         <v>0</v>
       </c>
       <c r="Z45" s="2">
-        <f>R$6*$AC42+R$16*$AC43+R$25*$AC44+R$35*$AC45+R$45*$AC46+R$55*$AC47+R$65*$AC50</f>
+        <f>R$6*$AC42+R$16*$AC43+R$25*$AC44+R$35*$AC45+R$45*$AC46+R$55*$AC47+R$65*$AC48</f>
         <v>0.34321307702950427</v>
       </c>
       <c r="AA45" s="2">
-        <f>S$6*$AC42+S$16*$AC43+S$25*$AC44+S$35*$AC45+S$45*$AC46+S$55*$AC47+S$65*$AC50</f>
+        <f>S$6*$AC42+S$16*$AC43+S$25*$AC44+S$35*$AC45+S$45*$AC46+S$55*$AC47+S$65*$AC48</f>
         <v>0.10554748771117868</v>
       </c>
       <c r="AC45">
@@ -4821,7 +4813,7 @@
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="A46" s="16"/>
       <c r="B46">
         <v>5</v>
       </c>
@@ -4853,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="7"/>
-      <c r="L46" s="17"/>
+      <c r="L46" s="16"/>
       <c r="M46">
         <v>5</v>
       </c>
@@ -4879,7 +4871,7 @@
       <c r="S46" s="2">
         <v>1</v>
       </c>
-      <c r="T46" s="17"/>
+      <c r="T46" s="16"/>
       <c r="U46">
         <v>5</v>
       </c>
@@ -4903,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="2">
-        <f>S$7*$AC42+S$17*$AC43+S$26*$AC44+S$36*$AC45+S$46*$AC46+S$56*$AC47+S$66*$AC50</f>
+        <f>S$7*$AC42+S$17*$AC43+S$26*$AC44+S$36*$AC45+S$46*$AC46+S$56*$AC47+S$66*$AC48</f>
         <v>0.76233441068167429</v>
       </c>
       <c r="AC46">
@@ -4945,7 +4937,7 @@
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="16"/>
       <c r="B47">
         <v>6</v>
       </c>
@@ -4977,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="9"/>
-      <c r="L47" s="17"/>
+      <c r="L47" s="16"/>
       <c r="M47">
         <v>6</v>
       </c>
@@ -5004,7 +4996,7 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="17"/>
+      <c r="T47" s="16"/>
       <c r="U47">
         <v>6</v>
       </c>
@@ -5113,6 +5105,17 @@
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="8"/>
+      <c r="AC48">
+        <f t="shared" si="40"/>
+        <v>8.7432284184107131E-2</v>
+      </c>
+      <c r="AD48">
+        <v>7</v>
+      </c>
+      <c r="AE48">
+        <f>EXP(-((AD48-$AF$42)^2/3))</f>
+        <v>0.26359713811572677</v>
+      </c>
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="7"/>
@@ -5164,6 +5167,14 @@
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
       <c r="AA49" s="8"/>
+      <c r="AC49">
+        <f>SUM(AC42:AC48)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AE49">
+        <f>SUM(AE42:AE48)</f>
+        <v>3.0148719157407275</v>
+      </c>
       <c r="AH49" s="7"/>
       <c r="AI49" s="7"/>
       <c r="AJ49" s="7"/>
@@ -5171,19 +5182,6 @@
       <c r="AL49" s="7"/>
       <c r="AM49" s="7"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AC50">
-        <f t="shared" si="40"/>
-        <v>8.7432284184107131E-2</v>
-      </c>
-      <c r="AD50">
-        <v>7</v>
-      </c>
-      <c r="AE50">
-        <f t="shared" si="45"/>
-        <v>0.26359713811572677</v>
-      </c>
-    </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>1</v>
@@ -5245,14 +5243,6 @@
       <c r="AA51">
         <v>6</v>
       </c>
-      <c r="AC51">
-        <f>SUM(AC42:AC50)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AE51">
-        <f>SUM(AE42:AE50)</f>
-        <v>3.0148719157407275</v>
-      </c>
       <c r="AH51">
         <v>1</v>
       </c>
@@ -5273,7 +5263,7 @@
       </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
+      <c r="A52" s="16">
         <v>6</v>
       </c>
       <c r="B52">
@@ -5304,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="7"/>
-      <c r="L52" s="17">
+      <c r="L52" s="16">
         <v>6</v>
       </c>
       <c r="M52">
@@ -5328,7 +5318,7 @@
       <c r="S52" s="2">
         <v>0</v>
       </c>
-      <c r="T52" s="17">
+      <c r="T52" s="16">
         <v>6</v>
       </c>
       <c r="U52">
@@ -5338,27 +5328,27 @@
         <v>0</v>
       </c>
       <c r="W52" s="2">
-        <f>O$3*$AC52+O$13*$AC53+O$22*$AC54+O$32*$AC55+O$42*$AC56+O$52*$AC57+O$62*$AC60</f>
+        <f>O$3*$AC52+O$13*$AC53+O$22*$AC54+O$32*$AC55+O$42*$AC56+O$52*$AC57+O$62*$AC58</f>
         <v>0.11573715168870326</v>
       </c>
       <c r="X52" s="2">
-        <f>P$3*$AC52+P$13*$AC53+P$22*$AC54+P$32*$AC55+P$42*$AC56+P$52*$AC57+P$62*$AC60</f>
+        <f>P$3*$AC52+P$13*$AC53+P$22*$AC54+P$32*$AC55+P$42*$AC56+P$52*$AC57+P$62*$AC58</f>
         <v>9.764273253919864E-2</v>
       </c>
       <c r="Y52" s="2">
-        <f>Q$3*$AC52+Q$13*$AC53+Q$22*$AC54+Q$32*$AC55+Q$42*$AC56+Q$52*$AC57+Q$62*$AC60</f>
+        <f>Q$3*$AC52+Q$13*$AC53+Q$22*$AC54+Q$32*$AC55+Q$42*$AC56+Q$52*$AC57+Q$62*$AC58</f>
         <v>1.7546514322908378E-3</v>
       </c>
       <c r="Z52" s="2">
-        <f>R$3*$AC52+R$13*$AC53+R$22*$AC54+R$32*$AC55+R$42*$AC56+R$52*$AC57+R$62*$AC60</f>
+        <f>R$3*$AC52+R$13*$AC53+R$22*$AC54+R$32*$AC55+R$42*$AC56+R$52*$AC57+R$62*$AC58</f>
         <v>1.7546514322908378E-3</v>
       </c>
       <c r="AA52" s="2">
-        <f>S$3*$AC52+S$13*$AC53+S$22*$AC54+S$32*$AC55+S$42*$AC56+S$52*$AC57+S$62*$AC60</f>
+        <f>S$3*$AC52+S$13*$AC53+S$22*$AC54+S$32*$AC55+S$42*$AC56+S$52*$AC57+S$62*$AC58</f>
         <v>1.7546514322908378E-3</v>
       </c>
       <c r="AC52">
-        <f t="shared" ref="AC52:AC60" si="51">AE52/$AE$61</f>
+        <f t="shared" ref="AC52:AC58" si="51">AE52/$AE$59</f>
         <v>8.735895082123426E-5</v>
       </c>
       <c r="AD52">
@@ -5399,7 +5389,7 @@
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
+      <c r="A53" s="16"/>
       <c r="B53">
         <v>2</v>
       </c>
@@ -5428,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="7"/>
-      <c r="L53" s="17"/>
+      <c r="L53" s="16"/>
       <c r="M53">
         <v>2</v>
       </c>
@@ -5451,7 +5441,7 @@
       <c r="S53" s="2">
         <v>0</v>
       </c>
-      <c r="T53" s="17"/>
+      <c r="T53" s="16"/>
       <c r="U53">
         <v>2</v>
       </c>
@@ -5463,19 +5453,19 @@
         <v>0</v>
       </c>
       <c r="X53" s="2">
-        <f>P$4*$AC52+P$14*$AC53+P$23*$AC54+P$33*$AC55+P$43*$AC56+P$53*$AC57+P$63*$AC60</f>
+        <f>P$4*$AC52+P$14*$AC53+P$23*$AC54+P$33*$AC55+P$43*$AC56+P$53*$AC57+P$63*$AC58</f>
         <v>0.98190558085049551</v>
       </c>
       <c r="Y53" s="2">
-        <f>Q$4*$AC52+Q$14*$AC53+Q$23*$AC54+Q$33*$AC55+Q$43*$AC56+Q$53*$AC57+Q$63*$AC60</f>
+        <f>Q$4*$AC52+Q$14*$AC53+Q$23*$AC54+Q$33*$AC55+Q$43*$AC56+Q$53*$AC57+Q$63*$AC58</f>
         <v>1.7546514322908378E-3</v>
       </c>
       <c r="Z53" s="2">
-        <f>R$4*$AC52+R$14*$AC53+R$23*$AC54+R$33*$AC55+R$43*$AC56+R$53*$AC57+R$63*$AC60</f>
+        <f>R$4*$AC52+R$14*$AC53+R$23*$AC54+R$33*$AC55+R$43*$AC56+R$53*$AC57+R$63*$AC58</f>
         <v>1.7546514322908378E-3</v>
       </c>
       <c r="AA53" s="2">
-        <f>S$4*$AC52+S$14*$AC53+S$23*$AC54+S$33*$AC55+S$43*$AC56+S$53*$AC57+S$63*$AC60</f>
+        <f>S$4*$AC52+S$14*$AC53+S$23*$AC54+S$33*$AC55+S$43*$AC56+S$53*$AC57+S$63*$AC58</f>
         <v>1.7546514322908378E-3</v>
       </c>
       <c r="AC53">
@@ -5486,7 +5476,7 @@
         <v>2</v>
       </c>
       <c r="AE53">
-        <f t="shared" ref="AE53:AE60" si="56">EXP(-((AD53-$AF$52)^2/3))</f>
+        <f t="shared" ref="AE53:AE57" si="56">EXP(-((AD53-$AF$52)^2/3))</f>
         <v>4.8279499938314414E-3</v>
       </c>
       <c r="AG53">
@@ -5517,7 +5507,7 @@
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
+      <c r="A54" s="16"/>
       <c r="B54">
         <v>3</v>
       </c>
@@ -5546,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="7"/>
-      <c r="L54" s="17"/>
+      <c r="L54" s="16"/>
       <c r="M54">
         <v>3</v>
       </c>
@@ -5570,7 +5560,7 @@
       <c r="S54" s="2">
         <v>0</v>
       </c>
-      <c r="T54" s="17"/>
+      <c r="T54" s="16"/>
       <c r="U54">
         <v>3</v>
       </c>
@@ -5586,15 +5576,15 @@
         <v>0</v>
       </c>
       <c r="Y54" s="2">
-        <f>Q$5*$AC52+Q$15*$AC53+Q$24*$AC54+Q$34*$AC55+Q$44*$AC56+Q$54*$AC57+Q$64*$AC60</f>
+        <f>Q$5*$AC52+Q$15*$AC53+Q$24*$AC54+Q$34*$AC55+Q$44*$AC56+Q$54*$AC57+Q$64*$AC58</f>
         <v>1.7546514322908378E-3</v>
       </c>
       <c r="Z54" s="2">
-        <f>R$5*$AC52+R$15*$AC53+R$24*$AC54+R$34*$AC55+R$44*$AC56+R$54*$AC57+R$64*$AC60</f>
+        <f>R$5*$AC52+R$15*$AC53+R$24*$AC54+R$34*$AC55+R$44*$AC56+R$54*$AC57+R$64*$AC58</f>
         <v>1.7546514322908378E-3</v>
       </c>
       <c r="AA54" s="2">
-        <f>S$5*$AC52+S$15*$AC53+S$24*$AC54+S$34*$AC55+S$44*$AC56+S$54*$AC57+S$64*$AC60</f>
+        <f>S$5*$AC52+S$15*$AC53+S$24*$AC54+S$34*$AC55+S$44*$AC56+S$54*$AC57+S$64*$AC58</f>
         <v>1.7546514322908378E-3</v>
       </c>
       <c r="AC54">
@@ -5636,7 +5626,7 @@
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+      <c r="A55" s="16"/>
       <c r="B55">
         <v>4</v>
       </c>
@@ -5668,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="7"/>
-      <c r="L55" s="17"/>
+      <c r="L55" s="16"/>
       <c r="M55">
         <v>4</v>
       </c>
@@ -5693,7 +5683,7 @@
       <c r="S55" s="2">
         <v>0</v>
       </c>
-      <c r="T55" s="17"/>
+      <c r="T55" s="16"/>
       <c r="U55">
         <v>4</v>
       </c>
@@ -5713,11 +5703,11 @@
         <v>0</v>
       </c>
       <c r="Z55" s="2">
-        <f>R$6*$AC52+R$16*$AC53+R$25*$AC54+R$35*$AC55+R$45*$AC56+R$55*$AC57+R$65*$AC60</f>
+        <f>R$6*$AC52+R$16*$AC53+R$25*$AC54+R$35*$AC55+R$45*$AC56+R$55*$AC57+R$65*$AC58</f>
         <v>0.3833725534636257</v>
       </c>
       <c r="AA55" s="2">
-        <f>S$6*$AC52+S$16*$AC53+S$25*$AC54+S$35*$AC55+S$45*$AC56+S$55*$AC57+S$65*$AC60</f>
+        <f>S$6*$AC52+S$16*$AC53+S$25*$AC54+S$35*$AC55+S$45*$AC56+S$55*$AC57+S$65*$AC58</f>
         <v>1.9936429532616689E-2</v>
       </c>
       <c r="AC55">
@@ -5759,7 +5749,7 @@
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
+      <c r="A56" s="16"/>
       <c r="B56">
         <v>5</v>
       </c>
@@ -5791,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="7"/>
-      <c r="L56" s="17"/>
+      <c r="L56" s="16"/>
       <c r="M56">
         <v>5</v>
       </c>
@@ -5817,7 +5807,7 @@
       <c r="S56" s="2">
         <v>0</v>
       </c>
-      <c r="T56" s="17"/>
+      <c r="T56" s="16"/>
       <c r="U56">
         <v>5</v>
       </c>
@@ -5841,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AA56" s="2">
-        <f>S$7*$AC52+S$17*$AC53+S$26*$AC54+S$36*$AC55+S$46*$AC56+S$56*$AC57+S$66*$AC60</f>
+        <f>S$7*$AC52+S$17*$AC53+S$26*$AC54+S$36*$AC55+S$46*$AC56+S$56*$AC57+S$66*$AC58</f>
         <v>0.63656387606899112</v>
       </c>
       <c r="AC56">
@@ -5883,7 +5873,7 @@
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
+      <c r="A57" s="16"/>
       <c r="B57">
         <v>6</v>
       </c>
@@ -5915,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="9"/>
-      <c r="L57" s="17"/>
+      <c r="L57" s="16"/>
       <c r="M57">
         <v>6</v>
       </c>
@@ -5942,7 +5932,7 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="17"/>
+      <c r="T57" s="16"/>
       <c r="U57">
         <v>6</v>
       </c>
@@ -6051,6 +6041,17 @@
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
       <c r="AA58" s="8"/>
+      <c r="AC58">
+        <f t="shared" si="51"/>
+        <v>0.26041336219014394</v>
+      </c>
+      <c r="AD58">
+        <v>7</v>
+      </c>
+      <c r="AE58">
+        <f>EXP(-((AD58-$AF$52)^2/3))</f>
+        <v>0.71653131057378927</v>
+      </c>
       <c r="AH58" s="7"/>
       <c r="AI58" s="7"/>
       <c r="AJ58" s="7"/>
@@ -6102,6 +6103,14 @@
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
       <c r="AA59" s="8"/>
+      <c r="AC59">
+        <f>SUM(AC52:AC58)</f>
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <f>SUM(AE52:AE58)</f>
+        <v>2.7515151471014199</v>
+      </c>
       <c r="AH59" s="7"/>
       <c r="AI59" s="7"/>
       <c r="AJ59" s="7"/>
@@ -6109,19 +6118,6 @@
       <c r="AL59" s="7"/>
       <c r="AM59" s="7"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AC60">
-        <f t="shared" si="51"/>
-        <v>0.26041336219014394</v>
-      </c>
-      <c r="AD60">
-        <v>7</v>
-      </c>
-      <c r="AE60">
-        <f t="shared" si="56"/>
-        <v>0.71653131057378927</v>
-      </c>
-    </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>1</v>
@@ -6141,6 +6137,12 @@
       <c r="H61">
         <v>6</v>
       </c>
+      <c r="I61" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="N61">
         <v>1</v>
       </c>
@@ -6177,14 +6179,6 @@
       <c r="AA61">
         <v>6</v>
       </c>
-      <c r="AC61">
-        <f>SUM(AC52:AC60)</f>
-        <v>1</v>
-      </c>
-      <c r="AE61">
-        <f>SUM(AE52:AE60)</f>
-        <v>2.7515151471014199</v>
-      </c>
       <c r="AH61">
         <v>1</v>
       </c>
@@ -6205,7 +6199,7 @@
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
+      <c r="A62" s="16">
         <v>7</v>
       </c>
       <c r="B62">
@@ -6236,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="7"/>
-      <c r="L62" s="17">
+      <c r="L62" s="16">
         <v>7</v>
       </c>
       <c r="M62">
@@ -6260,7 +6254,7 @@
       <c r="S62" s="2">
         <v>0</v>
       </c>
-      <c r="T62" s="17">
+      <c r="T62" s="16">
         <v>7</v>
       </c>
       <c r="U62">
@@ -6331,7 +6325,7 @@
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
+      <c r="A63" s="16"/>
       <c r="B63">
         <v>2</v>
       </c>
@@ -6360,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="7"/>
-      <c r="L63" s="17"/>
+      <c r="L63" s="16"/>
       <c r="M63">
         <v>2</v>
       </c>
@@ -6383,7 +6377,7 @@
       <c r="S63" s="2">
         <v>0</v>
       </c>
-      <c r="T63" s="17"/>
+      <c r="T63" s="16"/>
       <c r="U63">
         <v>2</v>
       </c>
@@ -6449,7 +6443,7 @@
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
+      <c r="A64" s="16"/>
       <c r="B64">
         <v>3</v>
       </c>
@@ -6478,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="7"/>
-      <c r="L64" s="17"/>
+      <c r="L64" s="16"/>
       <c r="M64">
         <v>3</v>
       </c>
@@ -6502,7 +6496,7 @@
       <c r="S64" s="2">
         <v>0</v>
       </c>
-      <c r="T64" s="17"/>
+      <c r="T64" s="16"/>
       <c r="U64">
         <v>3</v>
       </c>
@@ -6568,7 +6562,7 @@
       </c>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
+      <c r="A65" s="16"/>
       <c r="B65">
         <v>4</v>
       </c>
@@ -6600,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="7"/>
-      <c r="L65" s="17"/>
+      <c r="L65" s="16"/>
       <c r="M65">
         <v>4</v>
       </c>
@@ -6625,7 +6619,7 @@
       <c r="S65" s="2">
         <v>0</v>
       </c>
-      <c r="T65" s="17"/>
+      <c r="T65" s="16"/>
       <c r="U65">
         <v>4</v>
       </c>
@@ -6691,7 +6685,7 @@
       </c>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="A66" s="16"/>
       <c r="B66">
         <v>5</v>
       </c>
@@ -6723,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="7"/>
-      <c r="L66" s="17"/>
+      <c r="L66" s="16"/>
       <c r="M66">
         <v>5</v>
       </c>
@@ -6749,7 +6743,7 @@
       <c r="S66" s="2">
         <v>1</v>
       </c>
-      <c r="T66" s="17"/>
+      <c r="T66" s="16"/>
       <c r="U66">
         <v>5</v>
       </c>
@@ -6815,7 +6809,7 @@
       </c>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
+      <c r="A67" s="16"/>
       <c r="B67">
         <v>6</v>
       </c>
@@ -6847,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="9"/>
-      <c r="L67" s="17"/>
+      <c r="L67" s="16"/>
       <c r="M67">
         <v>6</v>
       </c>
@@ -6874,7 +6868,7 @@
       <c r="S67" s="3">
         <v>0</v>
       </c>
-      <c r="T67" s="17"/>
+      <c r="T67" s="16"/>
       <c r="U67">
         <v>6</v>
       </c>
@@ -7021,23 +7015,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="L13:L18"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="L52:L57"/>
     <mergeCell ref="AH1:AM1"/>
     <mergeCell ref="T42:T47"/>
     <mergeCell ref="T52:T57"/>
-    <mergeCell ref="T62:T67"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="L32:L37"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A62:A67"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="U1:AA1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A13:A18"/>
+    <mergeCell ref="L13:L18"/>
+    <mergeCell ref="L3:L8"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A42:A47"/>
@@ -7046,6 +7033,13 @@
     <mergeCell ref="T13:T18"/>
     <mergeCell ref="T22:T27"/>
     <mergeCell ref="T32:T37"/>
+    <mergeCell ref="T62:T67"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="L32:L37"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="L52:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7057,7 +7051,7 @@
   <dimension ref="A2:U58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7087,7 +7081,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3">
@@ -7099,7 +7093,7 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>1</v>
       </c>
       <c r="H3">
@@ -7138,7 +7132,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4">
         <v>2</v>
       </c>
@@ -7148,7 +7142,7 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="16"/>
       <c r="H4">
         <v>2</v>
       </c>
@@ -7182,8 +7176,8 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="G5" s="16"/>
       <c r="N5">
         <f t="shared" ref="N5:N8" si="1">P5/$P$10</f>
         <v>0.12953240095063018</v>
@@ -7197,8 +7191,8 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="N6">
         <f t="shared" si="1"/>
         <v>2.4465510316547045E-2</v>
@@ -7212,8 +7206,8 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="N7">
         <f t="shared" si="1"/>
         <v>2.3724686802024711E-3</v>
@@ -7227,8 +7221,8 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="N8">
         <f t="shared" si="1"/>
         <v>1.1811826038185626E-4</v>
@@ -7283,7 +7277,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>2</v>
       </c>
       <c r="B11">
@@ -7295,7 +7289,7 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>2</v>
       </c>
       <c r="H11">
@@ -7334,7 +7328,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12">
         <v>2</v>
       </c>
@@ -7344,7 +7338,7 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="16"/>
       <c r="H12">
         <v>2</v>
       </c>
@@ -7378,8 +7372,8 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="N13">
         <f t="shared" ref="N13:N16" si="3">P13/$P$18</f>
         <v>0.26041336219014394</v>
@@ -7393,8 +7387,8 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="G14" s="16"/>
       <c r="N14">
         <f t="shared" si="3"/>
         <v>9.5800722156086565E-2</v>
@@ -7408,8 +7402,8 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="A15" s="16"/>
+      <c r="G15" s="16"/>
       <c r="N15">
         <f t="shared" si="3"/>
         <v>1.8094419149504617E-2</v>
@@ -7423,8 +7417,8 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="A16" s="16"/>
+      <c r="G16" s="16"/>
       <c r="N16">
         <f t="shared" si="3"/>
         <v>1.7546514322908378E-3</v>
@@ -7479,7 +7473,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>3</v>
       </c>
       <c r="B19">
@@ -7491,7 +7485,7 @@
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <v>3</v>
       </c>
       <c r="H19">
@@ -7530,7 +7524,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20">
         <v>2</v>
       </c>
@@ -7540,7 +7534,7 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="16"/>
       <c r="H20">
         <v>2</v>
       </c>
@@ -7574,8 +7568,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="A21" s="16"/>
+      <c r="G21" s="16"/>
       <c r="N21">
         <f t="shared" ref="N21:N24" si="5">P21/$P$26</f>
         <v>0.33168904946806299</v>
@@ -7589,8 +7583,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="A22" s="16"/>
+      <c r="G22" s="16"/>
       <c r="N22">
         <f t="shared" si="5"/>
         <v>0.2376655893183256</v>
@@ -7604,8 +7598,8 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="G23" s="16"/>
       <c r="N23">
         <f t="shared" si="5"/>
         <v>8.7432284184107131E-2</v>
@@ -7619,8 +7613,8 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="G24" s="16"/>
       <c r="N24">
         <f t="shared" si="5"/>
         <v>1.6513825382738257E-2</v>
@@ -7675,7 +7669,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="16">
         <v>4</v>
       </c>
       <c r="B27">
@@ -7687,7 +7681,7 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="16">
         <v>4</v>
       </c>
       <c r="H27">
@@ -7726,7 +7720,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28">
         <v>2</v>
       </c>
@@ -7736,7 +7730,7 @@
       <c r="D28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="16"/>
       <c r="H28">
         <v>2</v>
       </c>
@@ -7770,8 +7764,8 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="G29" s="16"/>
       <c r="N29">
         <f t="shared" ref="N29:N32" si="7">P29/$P$34</f>
         <v>0.23417348951135436</v>
@@ -7785,8 +7779,8 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="A30" s="16"/>
+      <c r="G30" s="16"/>
       <c r="N30">
         <f t="shared" si="7"/>
         <v>0.32681543158781318</v>
@@ -7800,8 +7794,8 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="A31" s="16"/>
+      <c r="G31" s="16"/>
       <c r="N31">
         <f t="shared" si="7"/>
         <v>0.23417348951135436</v>
@@ -7815,8 +7809,8 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="A32" s="16"/>
+      <c r="G32" s="16"/>
       <c r="N32">
         <f t="shared" si="7"/>
         <v>8.6147612458603653E-2</v>
@@ -7871,7 +7865,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="A35" s="16">
         <v>5</v>
       </c>
       <c r="B35">
@@ -7883,7 +7877,7 @@
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="16">
         <v>5</v>
       </c>
       <c r="H35">
@@ -7922,7 +7916,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="16"/>
       <c r="B36">
         <v>2</v>
       </c>
@@ -7932,7 +7926,7 @@
       <c r="D36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="17"/>
+      <c r="G36" s="16"/>
       <c r="H36">
         <v>2</v>
       </c>
@@ -7966,8 +7960,8 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="A37" s="16"/>
+      <c r="G37" s="16"/>
       <c r="N37">
         <f t="shared" ref="N37:N40" si="9">P37/$P$42</f>
         <v>8.7432284184107131E-2</v>
@@ -7981,8 +7975,8 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="A38" s="16"/>
+      <c r="G38" s="16"/>
       <c r="N38">
         <f t="shared" si="9"/>
         <v>0.2376655893183256</v>
@@ -7996,8 +7990,8 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="A39" s="16"/>
+      <c r="G39" s="16"/>
       <c r="N39">
         <f t="shared" si="9"/>
         <v>0.33168904946806299</v>
@@ -8011,8 +8005,8 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="A40" s="16"/>
+      <c r="G40" s="16"/>
       <c r="N40">
         <f t="shared" si="9"/>
         <v>0.2376655893183256</v>
@@ -8067,7 +8061,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="A43" s="16">
         <v>6</v>
       </c>
       <c r="B43">
@@ -8079,7 +8073,7 @@
       <c r="D43" s="2">
         <v>1</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="16">
         <v>6</v>
       </c>
       <c r="H43">
@@ -8118,7 +8112,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="A44" s="16"/>
       <c r="B44">
         <v>2</v>
       </c>
@@ -8128,7 +8122,7 @@
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="17"/>
+      <c r="G44" s="16"/>
       <c r="H44">
         <v>2</v>
       </c>
@@ -8162,8 +8156,8 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="A45" s="16"/>
+      <c r="G45" s="16"/>
       <c r="N45">
         <f t="shared" ref="N45:N48" si="11">P45/$P$50</f>
         <v>1.8094419149504617E-2</v>
@@ -8177,8 +8171,8 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="G46" s="17"/>
+      <c r="A46" s="16"/>
+      <c r="G46" s="16"/>
       <c r="N46">
         <f t="shared" si="11"/>
         <v>9.5800722156086565E-2</v>
@@ -8192,8 +8186,8 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="G47" s="17"/>
+      <c r="A47" s="16"/>
+      <c r="G47" s="16"/>
       <c r="N47">
         <f t="shared" si="11"/>
         <v>0.26041336219014394</v>
@@ -8207,8 +8201,8 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="G48" s="17"/>
+      <c r="A48" s="16"/>
+      <c r="G48" s="16"/>
       <c r="N48">
         <f t="shared" si="11"/>
         <v>0.36343612393100899</v>
@@ -8263,7 +8257,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+      <c r="A51" s="16">
         <v>7</v>
       </c>
       <c r="B51">
@@ -8275,7 +8269,7 @@
       <c r="D51" s="2">
         <v>1</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="16">
         <v>7</v>
       </c>
       <c r="H51">
@@ -8314,7 +8308,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A52" s="16"/>
       <c r="B52">
         <v>2</v>
       </c>
@@ -8324,7 +8318,7 @@
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="17"/>
+      <c r="G52" s="16"/>
       <c r="H52">
         <v>2</v>
       </c>
@@ -8358,8 +8352,8 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="G53" s="17"/>
+      <c r="A53" s="16"/>
+      <c r="G53" s="16"/>
       <c r="N53">
         <f t="shared" ref="N53:N56" si="13">P53/$P$58</f>
         <v>2.3724686802024707E-3</v>
@@ -8373,8 +8367,8 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="G54" s="17"/>
+      <c r="A54" s="16"/>
+      <c r="G54" s="16"/>
       <c r="N54">
         <f t="shared" si="13"/>
         <v>2.4465510316547038E-2</v>
@@ -8388,8 +8382,8 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="G55" s="17"/>
+      <c r="A55" s="16"/>
+      <c r="G55" s="16"/>
       <c r="N55">
         <f t="shared" si="13"/>
         <v>0.12953240095063015</v>
@@ -8403,8 +8397,8 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="G56" s="17"/>
+      <c r="A56" s="16"/>
+      <c r="G56" s="16"/>
       <c r="N56">
         <f t="shared" si="13"/>
         <v>0.35210557170076912</v>

--- a/runnig example.xlsx
+++ b/runnig example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\Professional\PhD\PaperForECML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\GitHub\nsLGL-based-LPCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE924FC6-0681-4599-8605-1B5AB165960A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1487A4A-1B34-45C8-B37D-4ADF8367A3DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{522E04DE-09B8-4124-99DE-56A1D788C5A5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{522E04DE-09B8-4124-99DE-56A1D788C5A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="10">
   <si>
     <t>-</t>
   </si>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +81,14 @@
     <font>
       <b/>
       <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -141,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,10 +194,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -508,45 +519,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531650C0-766F-4E2F-BC45-94E22C2072EF}">
   <dimension ref="A1:AM70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="M1" s="17" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="U1" s="17" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="U1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
       <c r="AC1" s="14" t="s">
         <v>5</v>
       </c>
@@ -556,16 +567,16 @@
       <c r="AF1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AH1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>1</v>
       </c>
@@ -645,8 +656,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3">
@@ -677,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="7"/>
-      <c r="L3" s="16">
+      <c r="L3" s="17">
         <v>1</v>
       </c>
       <c r="M3">
@@ -701,7 +712,7 @@
       <c r="S3" s="2">
         <v>0</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="17">
         <v>1</v>
       </c>
       <c r="U3">
@@ -771,8 +782,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
       <c r="B4">
         <v>2</v>
       </c>
@@ -801,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="7"/>
-      <c r="L4" s="16"/>
+      <c r="L4" s="17"/>
       <c r="M4">
         <v>2</v>
       </c>
@@ -824,7 +835,7 @@
       <c r="S4" s="2">
         <v>0</v>
       </c>
-      <c r="T4" s="16"/>
+      <c r="T4" s="17"/>
       <c r="U4">
         <v>2</v>
       </c>
@@ -889,8 +900,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
       <c r="B5">
         <v>3</v>
       </c>
@@ -919,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="16"/>
+      <c r="L5" s="17"/>
       <c r="M5">
         <v>3</v>
       </c>
@@ -943,7 +954,7 @@
       <c r="S5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" s="16"/>
+      <c r="T5" s="17"/>
       <c r="U5">
         <v>3</v>
       </c>
@@ -1008,8 +1019,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
       <c r="B6">
         <v>4</v>
       </c>
@@ -1041,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6" s="16"/>
+      <c r="L6" s="17"/>
       <c r="M6">
         <v>4</v>
       </c>
@@ -1066,7 +1077,7 @@
       <c r="S6" s="2">
         <v>1</v>
       </c>
-      <c r="T6" s="16"/>
+      <c r="T6" s="17"/>
       <c r="U6">
         <v>4</v>
       </c>
@@ -1131,8 +1142,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
       <c r="B7">
         <v>5</v>
       </c>
@@ -1164,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="16"/>
+      <c r="L7" s="17"/>
       <c r="M7">
         <v>5</v>
       </c>
@@ -1190,7 +1201,7 @@
       <c r="S7" s="2">
         <v>1</v>
       </c>
-      <c r="T7" s="16"/>
+      <c r="T7" s="17"/>
       <c r="U7">
         <v>5</v>
       </c>
@@ -1255,8 +1266,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
       <c r="B8">
         <v>6</v>
       </c>
@@ -1288,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="16"/>
+      <c r="L8" s="17"/>
       <c r="M8">
         <v>6</v>
       </c>
@@ -1315,7 +1326,7 @@
       <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="16"/>
+      <c r="T8" s="17"/>
       <c r="U8">
         <v>6</v>
       </c>
@@ -1380,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>1</v>
@@ -1442,7 +1453,7 @@
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="10" t="s">
         <v>2</v>
@@ -1501,7 +1512,7 @@
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>1</v>
       </c>
@@ -1578,8 +1589,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>2</v>
       </c>
       <c r="B13">
@@ -1608,7 +1619,7 @@
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="16">
+      <c r="L13" s="17">
         <v>2</v>
       </c>
       <c r="M13">
@@ -1632,7 +1643,7 @@
       <c r="S13" s="2">
         <v>1</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="17">
         <v>2</v>
       </c>
       <c r="U13">
@@ -1702,8 +1713,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
       <c r="B14">
         <v>2</v>
       </c>
@@ -1730,7 +1741,7 @@
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="16"/>
+      <c r="L14" s="17"/>
       <c r="M14">
         <v>2</v>
       </c>
@@ -1753,7 +1764,7 @@
       <c r="S14" s="2">
         <v>1</v>
       </c>
-      <c r="T14" s="16"/>
+      <c r="T14" s="17"/>
       <c r="U14">
         <v>2</v>
       </c>
@@ -1818,8 +1829,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
       <c r="B15">
         <v>3</v>
       </c>
@@ -1846,7 +1857,7 @@
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="16"/>
+      <c r="L15" s="17"/>
       <c r="M15">
         <v>3</v>
       </c>
@@ -1870,7 +1881,7 @@
       <c r="S15" s="2">
         <v>1</v>
       </c>
-      <c r="T15" s="16"/>
+      <c r="T15" s="17"/>
       <c r="U15">
         <v>3</v>
       </c>
@@ -1935,8 +1946,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
       <c r="B16">
         <v>4</v>
       </c>
@@ -1966,7 +1977,7 @@
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="16"/>
+      <c r="L16" s="17"/>
       <c r="M16">
         <v>4</v>
       </c>
@@ -1991,7 +2002,7 @@
       <c r="S16" s="2">
         <v>1</v>
       </c>
-      <c r="T16" s="16"/>
+      <c r="T16" s="17"/>
       <c r="U16">
         <v>4</v>
       </c>
@@ -2056,8 +2067,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
       <c r="B17">
         <v>5</v>
       </c>
@@ -2087,7 +2098,7 @@
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="16"/>
+      <c r="L17" s="17"/>
       <c r="M17">
         <v>5</v>
       </c>
@@ -2113,7 +2124,7 @@
       <c r="S17" s="2">
         <v>1</v>
       </c>
-      <c r="T17" s="16"/>
+      <c r="T17" s="17"/>
       <c r="U17">
         <v>5</v>
       </c>
@@ -2178,8 +2189,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
       <c r="B18">
         <v>6</v>
       </c>
@@ -2209,7 +2220,7 @@
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="16"/>
+      <c r="L18" s="17"/>
       <c r="M18">
         <v>6</v>
       </c>
@@ -2236,7 +2247,7 @@
       <c r="S18" s="1">
         <v>0</v>
       </c>
-      <c r="T18" s="16"/>
+      <c r="T18" s="17"/>
       <c r="U18">
         <v>6</v>
       </c>
@@ -2301,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="13" t="s">
         <v>1</v>
@@ -2361,7 +2372,7 @@
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AC20">
         <f>SUM(AC13:AC19)</f>
         <v>1</v>
@@ -2371,7 +2382,7 @@
         <v>2.7515151471014199</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>1</v>
       </c>
@@ -2451,8 +2462,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
         <v>3</v>
       </c>
       <c r="B22">
@@ -2483,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="7"/>
-      <c r="L22" s="16">
+      <c r="L22" s="17">
         <v>3</v>
       </c>
       <c r="M22">
@@ -2507,7 +2518,7 @@
       <c r="S22" s="2">
         <v>0</v>
       </c>
-      <c r="T22" s="16">
+      <c r="T22" s="17">
         <v>3</v>
       </c>
       <c r="U22">
@@ -2577,8 +2588,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
       <c r="B23">
         <v>2</v>
       </c>
@@ -2607,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="7"/>
-      <c r="L23" s="16"/>
+      <c r="L23" s="17"/>
       <c r="M23">
         <v>2</v>
       </c>
@@ -2630,7 +2641,7 @@
       <c r="S23" s="2">
         <v>0</v>
       </c>
-      <c r="T23" s="16"/>
+      <c r="T23" s="17"/>
       <c r="U23">
         <v>2</v>
       </c>
@@ -2695,8 +2706,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
       <c r="B24">
         <v>3</v>
       </c>
@@ -2725,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="16"/>
+      <c r="L24" s="17"/>
       <c r="M24">
         <v>3</v>
       </c>
@@ -2749,7 +2760,7 @@
       <c r="S24" s="2">
         <v>0</v>
       </c>
-      <c r="T24" s="16"/>
+      <c r="T24" s="17"/>
       <c r="U24">
         <v>3</v>
       </c>
@@ -2814,8 +2825,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
       <c r="B25">
         <v>4</v>
       </c>
@@ -2847,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="7"/>
-      <c r="L25" s="16"/>
+      <c r="L25" s="17"/>
       <c r="M25">
         <v>4</v>
       </c>
@@ -2872,7 +2883,7 @@
       <c r="S25" s="2">
         <v>1</v>
       </c>
-      <c r="T25" s="16"/>
+      <c r="T25" s="17"/>
       <c r="U25">
         <v>4</v>
       </c>
@@ -2937,8 +2948,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
       <c r="B26">
         <v>5</v>
       </c>
@@ -2970,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="7"/>
-      <c r="L26" s="16"/>
+      <c r="L26" s="17"/>
       <c r="M26">
         <v>5</v>
       </c>
@@ -2996,7 +3007,7 @@
       <c r="S26" s="2">
         <v>1</v>
       </c>
-      <c r="T26" s="16"/>
+      <c r="T26" s="17"/>
       <c r="U26">
         <v>5</v>
       </c>
@@ -3061,8 +3072,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
       <c r="B27">
         <v>6</v>
       </c>
@@ -3094,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="8"/>
-      <c r="L27" s="16"/>
+      <c r="L27" s="17"/>
       <c r="M27">
         <v>6</v>
       </c>
@@ -3121,7 +3132,7 @@
       <c r="S27" s="1">
         <v>0</v>
       </c>
-      <c r="T27" s="16"/>
+      <c r="T27" s="17"/>
       <c r="U27">
         <v>6</v>
       </c>
@@ -3186,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="10" t="s">
         <v>1</v>
@@ -3248,7 +3259,7 @@
       <c r="AL28" s="7"/>
       <c r="AM28" s="7"/>
     </row>
-    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="10" t="s">
         <v>2</v>
@@ -3307,7 +3318,7 @@
       <c r="AL29" s="7"/>
       <c r="AM29" s="7"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>1</v>
       </c>
@@ -3387,8 +3398,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
         <v>4</v>
       </c>
       <c r="B32">
@@ -3419,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="7"/>
-      <c r="L32" s="16">
+      <c r="L32" s="17">
         <v>4</v>
       </c>
       <c r="M32">
@@ -3443,7 +3454,7 @@
       <c r="S32" s="2">
         <v>0</v>
       </c>
-      <c r="T32" s="16">
+      <c r="T32" s="17">
         <v>4</v>
       </c>
       <c r="U32">
@@ -3513,8 +3524,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
       <c r="B33">
         <v>2</v>
       </c>
@@ -3543,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="7"/>
-      <c r="L33" s="16"/>
+      <c r="L33" s="17"/>
       <c r="M33">
         <v>2</v>
       </c>
@@ -3566,7 +3577,7 @@
       <c r="S33" s="2">
         <v>0</v>
       </c>
-      <c r="T33" s="16"/>
+      <c r="T33" s="17"/>
       <c r="U33">
         <v>2</v>
       </c>
@@ -3631,8 +3642,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
       <c r="B34">
         <v>3</v>
       </c>
@@ -3661,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="7"/>
-      <c r="L34" s="16"/>
+      <c r="L34" s="17"/>
       <c r="M34">
         <v>3</v>
       </c>
@@ -3685,7 +3696,7 @@
       <c r="S34" s="2">
         <v>0</v>
       </c>
-      <c r="T34" s="16"/>
+      <c r="T34" s="17"/>
       <c r="U34">
         <v>3</v>
       </c>
@@ -3750,8 +3761,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
       <c r="B35">
         <v>4</v>
       </c>
@@ -3783,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="7"/>
-      <c r="L35" s="16"/>
+      <c r="L35" s="17"/>
       <c r="M35">
         <v>4</v>
       </c>
@@ -3808,7 +3819,7 @@
       <c r="S35" s="2">
         <v>0</v>
       </c>
-      <c r="T35" s="16"/>
+      <c r="T35" s="17"/>
       <c r="U35">
         <v>4</v>
       </c>
@@ -3873,8 +3884,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
       <c r="B36">
         <v>5</v>
       </c>
@@ -3906,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="7"/>
-      <c r="L36" s="16"/>
+      <c r="L36" s="17"/>
       <c r="M36">
         <v>5</v>
       </c>
@@ -3932,7 +3943,7 @@
       <c r="S36" s="2">
         <v>1</v>
       </c>
-      <c r="T36" s="16"/>
+      <c r="T36" s="17"/>
       <c r="U36">
         <v>5</v>
       </c>
@@ -3997,8 +4008,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
       <c r="B37">
         <v>6</v>
       </c>
@@ -4030,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="9"/>
-      <c r="L37" s="16"/>
+      <c r="L37" s="17"/>
       <c r="M37">
         <v>6</v>
       </c>
@@ -4057,7 +4068,7 @@
       <c r="S37" s="3">
         <v>0</v>
       </c>
-      <c r="T37" s="16"/>
+      <c r="T37" s="17"/>
       <c r="U37">
         <v>6</v>
       </c>
@@ -4122,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="10" t="s">
         <v>1</v>
@@ -4184,7 +4195,7 @@
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="10" t="s">
         <v>2</v>
@@ -4243,7 +4254,7 @@
       <c r="AL39" s="7"/>
       <c r="AM39" s="7"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>1</v>
       </c>
@@ -4323,8 +4334,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A42" s="17">
         <v>5</v>
       </c>
       <c r="B42">
@@ -4355,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="7"/>
-      <c r="L42" s="16">
+      <c r="L42" s="17">
         <v>5</v>
       </c>
       <c r="M42">
@@ -4379,7 +4390,7 @@
       <c r="S42" s="2">
         <v>0</v>
       </c>
-      <c r="T42" s="16">
+      <c r="T42" s="17">
         <v>5</v>
       </c>
       <c r="U42">
@@ -4449,8 +4460,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
       <c r="B43">
         <v>2</v>
       </c>
@@ -4479,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="7"/>
-      <c r="L43" s="16"/>
+      <c r="L43" s="17"/>
       <c r="M43">
         <v>2</v>
       </c>
@@ -4502,7 +4513,7 @@
       <c r="S43" s="2">
         <v>0</v>
       </c>
-      <c r="T43" s="16"/>
+      <c r="T43" s="17"/>
       <c r="U43">
         <v>2</v>
       </c>
@@ -4568,8 +4579,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
       <c r="B44">
         <v>3</v>
       </c>
@@ -4598,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="7"/>
-      <c r="L44" s="16"/>
+      <c r="L44" s="17"/>
       <c r="M44">
         <v>3</v>
       </c>
@@ -4622,7 +4633,7 @@
       <c r="S44" s="2">
         <v>0</v>
       </c>
-      <c r="T44" s="16"/>
+      <c r="T44" s="17"/>
       <c r="U44">
         <v>3</v>
       </c>
@@ -4688,8 +4699,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
       <c r="B45">
         <v>4</v>
       </c>
@@ -4721,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="7"/>
-      <c r="L45" s="16"/>
+      <c r="L45" s="17"/>
       <c r="M45">
         <v>4</v>
       </c>
@@ -4746,7 +4757,7 @@
       <c r="S45" s="2">
         <v>0</v>
       </c>
-      <c r="T45" s="16"/>
+      <c r="T45" s="17"/>
       <c r="U45">
         <v>4</v>
       </c>
@@ -4812,8 +4823,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
       <c r="B46">
         <v>5</v>
       </c>
@@ -4845,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="7"/>
-      <c r="L46" s="16"/>
+      <c r="L46" s="17"/>
       <c r="M46">
         <v>5</v>
       </c>
@@ -4871,7 +4882,7 @@
       <c r="S46" s="2">
         <v>1</v>
       </c>
-      <c r="T46" s="16"/>
+      <c r="T46" s="17"/>
       <c r="U46">
         <v>5</v>
       </c>
@@ -4936,8 +4947,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
       <c r="B47">
         <v>6</v>
       </c>
@@ -4969,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="9"/>
-      <c r="L47" s="16"/>
+      <c r="L47" s="17"/>
       <c r="M47">
         <v>6</v>
       </c>
@@ -4996,7 +5007,7 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="16"/>
+      <c r="T47" s="17"/>
       <c r="U47">
         <v>6</v>
       </c>
@@ -5061,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="10" t="s">
         <v>1</v>
@@ -5123,7 +5134,7 @@
       <c r="AL48" s="7"/>
       <c r="AM48" s="7"/>
     </row>
-    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="10" t="s">
         <v>2</v>
@@ -5182,7 +5193,7 @@
       <c r="AL49" s="7"/>
       <c r="AM49" s="7"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>1</v>
       </c>
@@ -5262,8 +5273,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A52" s="17">
         <v>6</v>
       </c>
       <c r="B52">
@@ -5294,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="7"/>
-      <c r="L52" s="16">
+      <c r="L52" s="17">
         <v>6</v>
       </c>
       <c r="M52">
@@ -5318,7 +5329,7 @@
       <c r="S52" s="2">
         <v>0</v>
       </c>
-      <c r="T52" s="16">
+      <c r="T52" s="17">
         <v>6</v>
       </c>
       <c r="U52">
@@ -5388,8 +5399,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
       <c r="B53">
         <v>2</v>
       </c>
@@ -5418,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="7"/>
-      <c r="L53" s="16"/>
+      <c r="L53" s="17"/>
       <c r="M53">
         <v>2</v>
       </c>
@@ -5441,7 +5452,7 @@
       <c r="S53" s="2">
         <v>0</v>
       </c>
-      <c r="T53" s="16"/>
+      <c r="T53" s="17"/>
       <c r="U53">
         <v>2</v>
       </c>
@@ -5506,8 +5517,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
       <c r="B54">
         <v>3</v>
       </c>
@@ -5536,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="7"/>
-      <c r="L54" s="16"/>
+      <c r="L54" s="17"/>
       <c r="M54">
         <v>3</v>
       </c>
@@ -5560,7 +5571,7 @@
       <c r="S54" s="2">
         <v>0</v>
       </c>
-      <c r="T54" s="16"/>
+      <c r="T54" s="17"/>
       <c r="U54">
         <v>3</v>
       </c>
@@ -5625,8 +5636,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
       <c r="B55">
         <v>4</v>
       </c>
@@ -5658,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="7"/>
-      <c r="L55" s="16"/>
+      <c r="L55" s="17"/>
       <c r="M55">
         <v>4</v>
       </c>
@@ -5683,7 +5694,7 @@
       <c r="S55" s="2">
         <v>0</v>
       </c>
-      <c r="T55" s="16"/>
+      <c r="T55" s="17"/>
       <c r="U55">
         <v>4</v>
       </c>
@@ -5748,8 +5759,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
       <c r="B56">
         <v>5</v>
       </c>
@@ -5781,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="7"/>
-      <c r="L56" s="16"/>
+      <c r="L56" s="17"/>
       <c r="M56">
         <v>5</v>
       </c>
@@ -5807,7 +5818,7 @@
       <c r="S56" s="2">
         <v>0</v>
       </c>
-      <c r="T56" s="16"/>
+      <c r="T56" s="17"/>
       <c r="U56">
         <v>5</v>
       </c>
@@ -5872,8 +5883,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
       <c r="B57">
         <v>6</v>
       </c>
@@ -5905,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="9"/>
-      <c r="L57" s="16"/>
+      <c r="L57" s="17"/>
       <c r="M57">
         <v>6</v>
       </c>
@@ -5932,7 +5943,7 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="16"/>
+      <c r="T57" s="17"/>
       <c r="U57">
         <v>6</v>
       </c>
@@ -5997,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="10" t="s">
         <v>1</v>
@@ -6059,7 +6070,7 @@
       <c r="AL58" s="7"/>
       <c r="AM58" s="7"/>
     </row>
-    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="10" t="s">
         <v>2</v>
@@ -6118,7 +6129,7 @@
       <c r="AL59" s="7"/>
       <c r="AM59" s="7"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>1</v>
       </c>
@@ -6198,8 +6209,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A62" s="17">
         <v>7</v>
       </c>
       <c r="B62">
@@ -6230,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="7"/>
-      <c r="L62" s="16">
+      <c r="L62" s="17">
         <v>7</v>
       </c>
       <c r="M62">
@@ -6254,7 +6265,7 @@
       <c r="S62" s="2">
         <v>0</v>
       </c>
-      <c r="T62" s="16">
+      <c r="T62" s="17">
         <v>7</v>
       </c>
       <c r="U62">
@@ -6324,8 +6335,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A63" s="17"/>
       <c r="B63">
         <v>2</v>
       </c>
@@ -6354,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="7"/>
-      <c r="L63" s="16"/>
+      <c r="L63" s="17"/>
       <c r="M63">
         <v>2</v>
       </c>
@@ -6377,7 +6388,7 @@
       <c r="S63" s="2">
         <v>0</v>
       </c>
-      <c r="T63" s="16"/>
+      <c r="T63" s="17"/>
       <c r="U63">
         <v>2</v>
       </c>
@@ -6442,8 +6453,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A64" s="17"/>
       <c r="B64">
         <v>3</v>
       </c>
@@ -6472,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="7"/>
-      <c r="L64" s="16"/>
+      <c r="L64" s="17"/>
       <c r="M64">
         <v>3</v>
       </c>
@@ -6496,7 +6507,7 @@
       <c r="S64" s="2">
         <v>0</v>
       </c>
-      <c r="T64" s="16"/>
+      <c r="T64" s="17"/>
       <c r="U64">
         <v>3</v>
       </c>
@@ -6561,8 +6572,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A65" s="17"/>
       <c r="B65">
         <v>4</v>
       </c>
@@ -6594,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="7"/>
-      <c r="L65" s="16"/>
+      <c r="L65" s="17"/>
       <c r="M65">
         <v>4</v>
       </c>
@@ -6619,7 +6630,7 @@
       <c r="S65" s="2">
         <v>0</v>
       </c>
-      <c r="T65" s="16"/>
+      <c r="T65" s="17"/>
       <c r="U65">
         <v>4</v>
       </c>
@@ -6684,8 +6695,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A66" s="17"/>
       <c r="B66">
         <v>5</v>
       </c>
@@ -6717,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="7"/>
-      <c r="L66" s="16"/>
+      <c r="L66" s="17"/>
       <c r="M66">
         <v>5</v>
       </c>
@@ -6743,7 +6754,7 @@
       <c r="S66" s="2">
         <v>1</v>
       </c>
-      <c r="T66" s="16"/>
+      <c r="T66" s="17"/>
       <c r="U66">
         <v>5</v>
       </c>
@@ -6808,8 +6819,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A67" s="17"/>
       <c r="B67">
         <v>6</v>
       </c>
@@ -6841,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="9"/>
-      <c r="L67" s="16"/>
+      <c r="L67" s="17"/>
       <c r="M67">
         <v>6</v>
       </c>
@@ -6868,7 +6879,7 @@
       <c r="S67" s="3">
         <v>0</v>
       </c>
-      <c r="T67" s="16"/>
+      <c r="T67" s="17"/>
       <c r="U67">
         <v>6</v>
       </c>
@@ -6933,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>1</v>
       </c>
@@ -6973,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>2</v>
       </c>
@@ -7010,22 +7021,11 @@
         <v>2.0349899807399843</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="F70" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AH1:AM1"/>
-    <mergeCell ref="T42:T47"/>
-    <mergeCell ref="T52:T57"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="L13:L18"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="A22:A27"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A42:A47"/>
     <mergeCell ref="L62:L67"/>
@@ -7040,6 +7040,17 @@
     <mergeCell ref="A62:A67"/>
     <mergeCell ref="L22:L27"/>
     <mergeCell ref="L52:L57"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="L13:L18"/>
+    <mergeCell ref="L3:L8"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="AH1:AM1"/>
+    <mergeCell ref="T42:T47"/>
+    <mergeCell ref="T52:T57"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="U1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7048,19 +7059,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8BC41E-65EC-4115-9885-A52529E558C4}">
-  <dimension ref="A2:U58"/>
+  <dimension ref="A2:Q58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>1</v>
       </c>
@@ -7073,15 +7084,9 @@
       <c r="J2">
         <v>2</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3">
@@ -7093,7 +7098,7 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="17">
         <v>1</v>
       </c>
       <c r="H3">
@@ -7102,7 +7107,7 @@
       <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="18">
         <f>D$3*$N3+D$11*$N4+D$19*$N5+D$27*$N6+D$35*$N7+D$43*$N8+D$51*$N9</f>
         <v>0.62342891798268396</v>
       </c>
@@ -7120,19 +7125,9 @@
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <f>ROUND(J3,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
       <c r="B4">
         <v>2</v>
       </c>
@@ -7142,7 +7137,7 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4">
         <v>2</v>
       </c>
@@ -7164,20 +7159,10 @@
         <f t="shared" ref="P4:P9" si="0">EXP(-((O4-$Q$3)^2/3))</f>
         <v>0.71653131057378927</v>
       </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4" s="2">
-        <f>ROUND(I4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="G5" s="16"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="N5">
         <f t="shared" ref="N5:N8" si="1">P5/$P$10</f>
         <v>0.12953240095063018</v>
@@ -7190,9 +7175,9 @@
         <v>0.26359713811572677</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="G6" s="16"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="G6" s="17"/>
       <c r="N6">
         <f t="shared" si="1"/>
         <v>2.4465510316547045E-2</v>
@@ -7205,9 +7190,9 @@
         <v>4.9787068367863944E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="G7" s="16"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="N7">
         <f t="shared" si="1"/>
         <v>2.3724686802024711E-3</v>
@@ -7220,9 +7205,9 @@
         <v>4.8279499938314414E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="G8" s="16"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="N8">
         <f t="shared" si="1"/>
         <v>1.1811826038185626E-4</v>
@@ -7235,7 +7220,7 @@
         <v>2.4036947641951407E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N9">
         <f>P9/$P$10</f>
         <v>3.019283835045708E-6</v>
@@ -7248,7 +7233,7 @@
         <v>6.1442123533282098E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>1</v>
       </c>
@@ -7269,15 +7254,9 @@
         <f>SUM(P3:P9)</f>
         <v>2.0349899807399838</v>
       </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
         <v>2</v>
       </c>
       <c r="B11">
@@ -7289,7 +7268,7 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="17">
         <v>2</v>
       </c>
       <c r="H11">
@@ -7298,7 +7277,7 @@
       <c r="I11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="18">
         <f>D$3*$N11+D$11*$N12+D$19*$N13+D$27*$N14+D$35*$N15+D$43*$N16+D$51*$N17</f>
         <v>0.54076315391290453</v>
       </c>
@@ -7316,19 +7295,9 @@
       <c r="Q11">
         <v>2</v>
       </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <f>ROUND(J11,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
       <c r="B12">
         <v>2</v>
       </c>
@@ -7338,7 +7307,7 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="17"/>
       <c r="H12">
         <v>2</v>
       </c>
@@ -7360,20 +7329,10 @@
         <f t="shared" ref="P12:P17" si="2">EXP(-((O12-$Q$11)^2/3))</f>
         <v>1</v>
       </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12" s="2">
-        <f>ROUND(I12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="G13" s="16"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="N13">
         <f t="shared" ref="N13:N16" si="3">P13/$P$18</f>
         <v>0.26041336219014394</v>
@@ -7386,9 +7345,9 @@
         <v>0.71653131057378927</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="G14" s="16"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="N14">
         <f t="shared" si="3"/>
         <v>9.5800722156086565E-2</v>
@@ -7401,9 +7360,9 @@
         <v>0.26359713811572677</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="G15" s="16"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="G15" s="17"/>
       <c r="N15">
         <f t="shared" si="3"/>
         <v>1.8094419149504617E-2</v>
@@ -7416,9 +7375,9 @@
         <v>4.9787068367863944E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="G16" s="16"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="N16">
         <f t="shared" si="3"/>
         <v>1.7546514322908378E-3</v>
@@ -7431,7 +7390,7 @@
         <v>4.8279499938314414E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N17">
         <f>P17/$P$18</f>
         <v>8.735895082123426E-5</v>
@@ -7444,7 +7403,7 @@
         <v>2.4036947641951407E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>1</v>
       </c>
@@ -7465,15 +7424,9 @@
         <f>SUM(P11:P17)</f>
         <v>2.7515151471014199</v>
       </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
         <v>3</v>
       </c>
       <c r="B19">
@@ -7485,7 +7438,7 @@
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="17">
         <v>3</v>
       </c>
       <c r="H19">
@@ -7494,7 +7447,7 @@
       <c r="I19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="18">
         <f>D$3*$N19+D$11*$N20+D$19*$N21+D$27*$N22+D$35*$N23+D$43*$N24+D$51*$N25</f>
         <v>0.5246688213633488</v>
       </c>
@@ -7512,19 +7465,9 @@
       <c r="Q19">
         <v>3</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2">
-        <f>ROUND(J19,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
       <c r="B20">
         <v>2</v>
       </c>
@@ -7534,7 +7477,7 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="17"/>
       <c r="H20">
         <v>2</v>
       </c>
@@ -7556,20 +7499,10 @@
         <f t="shared" ref="P20:P25" si="4">EXP(-((O20-$Q$19)^2/3))</f>
         <v>0.71653131057378927</v>
       </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20" s="2">
-        <f>ROUND(I20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="G21" s="16"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="N21">
         <f t="shared" ref="N21:N24" si="5">P21/$P$26</f>
         <v>0.33168904946806299</v>
@@ -7582,9 +7515,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="G22" s="16"/>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="G22" s="17"/>
       <c r="N22">
         <f t="shared" si="5"/>
         <v>0.2376655893183256</v>
@@ -7597,9 +7530,9 @@
         <v>0.71653131057378927</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="G23" s="16"/>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="G23" s="17"/>
       <c r="N23">
         <f t="shared" si="5"/>
         <v>8.7432284184107131E-2</v>
@@ -7612,9 +7545,9 @@
         <v>0.26359713811572677</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="G24" s="16"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="G24" s="17"/>
       <c r="N24">
         <f t="shared" si="5"/>
         <v>1.6513825382738257E-2</v>
@@ -7627,7 +7560,7 @@
         <v>4.9787068367863944E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N25">
         <f>P25/$P$26</f>
         <v>1.6013781443332913E-3</v>
@@ -7640,7 +7573,7 @@
         <v>4.8279499938314414E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>1</v>
       </c>
@@ -7661,15 +7594,9 @@
         <f>SUM(P19:P25)</f>
         <v>3.0148719157407275</v>
       </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
         <v>4</v>
       </c>
       <c r="B27">
@@ -7681,7 +7608,7 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="17">
         <v>4</v>
       </c>
       <c r="H27">
@@ -7690,7 +7617,7 @@
       <c r="I27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="18">
         <f>D$3*$N27+D$11*$N28+D$19*$N29+D$27*$N30+D$35*$N31+D$43*$N32+D$51*$N33</f>
         <v>0.58703695595358329</v>
       </c>
@@ -7708,19 +7635,9 @@
       <c r="Q27">
         <v>4</v>
       </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U27" s="2">
-        <f>ROUND(J27,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
       <c r="B28">
         <v>2</v>
       </c>
@@ -7730,7 +7647,7 @@
       <c r="D28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="17"/>
       <c r="H28">
         <v>2</v>
       </c>
@@ -7752,20 +7669,10 @@
         <f t="shared" ref="P28:P33" si="6">EXP(-((O28-$Q$27)^2/3))</f>
         <v>0.26359713811572677</v>
       </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
-      <c r="T28" s="2">
-        <f>ROUND(I28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="G29" s="16"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="G29" s="17"/>
       <c r="N29">
         <f t="shared" ref="N29:N32" si="7">P29/$P$34</f>
         <v>0.23417348951135436</v>
@@ -7778,9 +7685,9 @@
         <v>0.71653131057378927</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="G30" s="16"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="G30" s="17"/>
       <c r="N30">
         <f t="shared" si="7"/>
         <v>0.32681543158781318</v>
@@ -7793,9 +7700,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="G31" s="16"/>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="G31" s="17"/>
       <c r="N31">
         <f t="shared" si="7"/>
         <v>0.23417348951135436</v>
@@ -7808,9 +7715,9 @@
         <v>0.71653131057378927</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="G32" s="16"/>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="G32" s="17"/>
       <c r="N32">
         <f t="shared" si="7"/>
         <v>8.6147612458603653E-2</v>
@@ -7823,7 +7730,7 @@
         <v>0.26359713811572677</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N33">
         <f>P33/$P$34</f>
         <v>1.6271182236135419E-2</v>
@@ -7836,7 +7743,7 @@
         <v>4.9787068367863944E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>1</v>
       </c>
@@ -7857,15 +7764,9 @@
         <f>SUM(P27:P33)</f>
         <v>3.0598310341147599</v>
       </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
         <v>5</v>
       </c>
       <c r="B35">
@@ -7877,7 +7778,7 @@
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="17">
         <v>5</v>
       </c>
       <c r="H35">
@@ -7886,7 +7787,7 @@
       <c r="I35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="18">
         <f>D$3*$N35+D$11*$N36+D$19*$N37+D$27*$N38+D$35*$N39+D$43*$N40+D$51*$N41</f>
         <v>0.74582058529893613</v>
       </c>
@@ -7904,19 +7805,9 @@
       <c r="Q35">
         <v>5</v>
       </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U35" s="2">
-        <f>ROUND(J35,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
       <c r="B36">
         <v>2</v>
       </c>
@@ -7926,7 +7817,7 @@
       <c r="D36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="16"/>
+      <c r="G36" s="17"/>
       <c r="H36">
         <v>2</v>
       </c>
@@ -7948,20 +7839,10 @@
         <f t="shared" ref="P36:P41" si="8">EXP(-((O36-$Q$35)^2/3))</f>
         <v>4.9787068367863944E-2</v>
       </c>
-      <c r="S36">
-        <v>2</v>
-      </c>
-      <c r="T36" s="2">
-        <f>ROUND(I36,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="G37" s="16"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="G37" s="17"/>
       <c r="N37">
         <f t="shared" ref="N37:N40" si="9">P37/$P$42</f>
         <v>8.7432284184107131E-2</v>
@@ -7974,9 +7855,9 @@
         <v>0.26359713811572677</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="G38" s="16"/>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="G38" s="17"/>
       <c r="N38">
         <f t="shared" si="9"/>
         <v>0.2376655893183256</v>
@@ -7989,9 +7870,9 @@
         <v>0.71653131057378927</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="G39" s="16"/>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="G39" s="17"/>
       <c r="N39">
         <f t="shared" si="9"/>
         <v>0.33168904946806299</v>
@@ -8004,9 +7885,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="G40" s="16"/>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="G40" s="17"/>
       <c r="N40">
         <f t="shared" si="9"/>
         <v>0.2376655893183256</v>
@@ -8019,7 +7900,7 @@
         <v>0.71653131057378927</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N41">
         <f>P41/$P$42</f>
         <v>8.7432284184107131E-2</v>
@@ -8032,7 +7913,7 @@
         <v>0.26359713811572677</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>1</v>
       </c>
@@ -8053,15 +7934,9 @@
         <f>SUM(P35:P41)</f>
         <v>3.0148719157407275</v>
       </c>
-      <c r="T42">
-        <v>1</v>
-      </c>
-      <c r="U42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="17">
         <v>6</v>
       </c>
       <c r="B43">
@@ -8073,7 +7948,7 @@
       <c r="D43" s="2">
         <v>1</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="17">
         <v>6</v>
       </c>
       <c r="H43">
@@ -8082,7 +7957,7 @@
       <c r="I43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="18">
         <f>D$3*$N43+D$11*$N44+D$19*$N45+D$27*$N46+D$35*$N47+D$43*$N48+D$51*$N49</f>
         <v>0.9024446264116226</v>
       </c>
@@ -8100,19 +7975,9 @@
       <c r="Q43">
         <v>6</v>
       </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U43" s="2">
-        <f>ROUND(J43,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
       <c r="B44">
         <v>2</v>
       </c>
@@ -8122,7 +7987,7 @@
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="16"/>
+      <c r="G44" s="17"/>
       <c r="H44">
         <v>2</v>
       </c>
@@ -8144,20 +8009,10 @@
         <f t="shared" ref="P44:P49" si="10">EXP(-((O44-$Q$43)^2/3))</f>
         <v>4.8279499938314414E-3</v>
       </c>
-      <c r="S44">
-        <v>2</v>
-      </c>
-      <c r="T44" s="2">
-        <f>ROUND(I44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="G45" s="16"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="G45" s="17"/>
       <c r="N45">
         <f t="shared" ref="N45:N48" si="11">P45/$P$50</f>
         <v>1.8094419149504617E-2</v>
@@ -8170,9 +8025,9 @@
         <v>4.9787068367863944E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="G46" s="16"/>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="G46" s="17"/>
       <c r="N46">
         <f t="shared" si="11"/>
         <v>9.5800722156086565E-2</v>
@@ -8185,9 +8040,9 @@
         <v>0.26359713811572677</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="G47" s="16"/>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="G47" s="17"/>
       <c r="N47">
         <f t="shared" si="11"/>
         <v>0.26041336219014394</v>
@@ -8200,9 +8055,9 @@
         <v>0.71653131057378927</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="G48" s="16"/>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="G48" s="17"/>
       <c r="N48">
         <f t="shared" si="11"/>
         <v>0.36343612393100899</v>
@@ -8215,7 +8070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N49">
         <f>P49/$P$50</f>
         <v>0.26041336219014394</v>
@@ -8228,7 +8083,7 @@
         <v>0.71653131057378927</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>1</v>
       </c>
@@ -8249,15 +8104,9 @@
         <f>SUM(P43:P49)</f>
         <v>2.7515151471014199</v>
       </c>
-      <c r="T50">
-        <v>1</v>
-      </c>
-      <c r="U50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="16">
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="17">
         <v>7</v>
       </c>
       <c r="B51">
@@ -8269,7 +8118,7 @@
       <c r="D51" s="2">
         <v>1</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="17">
         <v>7</v>
       </c>
       <c r="H51">
@@ -8278,7 +8127,7 @@
       <c r="I51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="18">
         <f>D$3*$N51+D$11*$N52+D$19*$N53+D$27*$N54+D$35*$N55+D$43*$N56+D$51*$N57</f>
         <v>0.97541637142307114</v>
       </c>
@@ -8296,19 +8145,9 @@
       <c r="Q51">
         <v>7</v>
       </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U51" s="2">
-        <f>ROUND(J51,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
       <c r="B52">
         <v>2</v>
       </c>
@@ -8318,7 +8157,7 @@
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="16"/>
+      <c r="G52" s="17"/>
       <c r="H52">
         <v>2</v>
       </c>
@@ -8340,20 +8179,10 @@
         <f t="shared" ref="P52:P57" si="12">EXP(-((O52-$Q$51)^2/3))</f>
         <v>2.4036947641951407E-4</v>
       </c>
-      <c r="S52">
-        <v>2</v>
-      </c>
-      <c r="T52" s="2">
-        <f>ROUND(I52,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="G53" s="16"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
+      <c r="G53" s="17"/>
       <c r="N53">
         <f t="shared" ref="N53:N56" si="13">P53/$P$58</f>
         <v>2.3724686802024707E-3</v>
@@ -8366,9 +8195,9 @@
         <v>4.8279499938314414E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="G54" s="16"/>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
+      <c r="G54" s="17"/>
       <c r="N54">
         <f t="shared" si="13"/>
         <v>2.4465510316547038E-2</v>
@@ -8381,9 +8210,9 @@
         <v>4.9787068367863944E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="G55" s="16"/>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
+      <c r="G55" s="17"/>
       <c r="N55">
         <f t="shared" si="13"/>
         <v>0.12953240095063015</v>
@@ -8396,9 +8225,9 @@
         <v>0.26359713811572677</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="G56" s="16"/>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="G56" s="17"/>
       <c r="N56">
         <f t="shared" si="13"/>
         <v>0.35210557170076912</v>
@@ -8411,7 +8240,7 @@
         <v>0.71653131057378927</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N57">
         <f>P57/$P$58</f>
         <v>0.49140291080763432</v>
@@ -8424,7 +8253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N58">
         <f>SUM(N51:N57)</f>
         <v>1</v>
@@ -8436,12 +8265,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="G19:G24"/>
     <mergeCell ref="A51:A56"/>
     <mergeCell ref="G51:G56"/>
     <mergeCell ref="A27:A32"/>
@@ -8450,7 +8273,14 @@
     <mergeCell ref="G35:G40"/>
     <mergeCell ref="A43:A48"/>
     <mergeCell ref="G43:G48"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="G19:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/runnig example.xlsx
+++ b/runnig example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\GitHub\nsLGL-based-LPCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1487A4A-1B34-45C8-B37D-4ADF8367A3DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973D7204-B977-4997-ABF2-041712394BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{522E04DE-09B8-4124-99DE-56A1D788C5A5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{522E04DE-09B8-4124-99DE-56A1D788C5A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,13 +194,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531650C0-766F-4E2F-BC45-94E22C2072EF}">
   <dimension ref="A1:AM70"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,34 +530,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="U1" s="16" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="U1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
       <c r="AC1" s="14" t="s">
         <v>5</v>
       </c>
@@ -567,14 +567,14 @@
       <c r="AF1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AH1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C2">
@@ -7026,6 +7026,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T52:T57"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="L13:L18"/>
+    <mergeCell ref="L3:L8"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="AH1:AM1"/>
+    <mergeCell ref="T42:T47"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A42:A47"/>
     <mergeCell ref="L62:L67"/>
@@ -7042,15 +7051,6 @@
     <mergeCell ref="L52:L57"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A13:A18"/>
-    <mergeCell ref="L13:L18"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="AH1:AM1"/>
-    <mergeCell ref="T42:T47"/>
-    <mergeCell ref="T52:T57"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="U1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7061,7 +7061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8BC41E-65EC-4115-9885-A52529E558C4}">
   <dimension ref="A2:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
@@ -7107,7 +7107,7 @@
       <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="16">
         <f>D$3*$N3+D$11*$N4+D$19*$N5+D$27*$N6+D$35*$N7+D$43*$N8+D$51*$N9</f>
         <v>0.62342891798268396</v>
       </c>
@@ -7277,7 +7277,7 @@
       <c r="I11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="16">
         <f>D$3*$N11+D$11*$N12+D$19*$N13+D$27*$N14+D$35*$N15+D$43*$N16+D$51*$N17</f>
         <v>0.54076315391290453</v>
       </c>
@@ -7447,7 +7447,7 @@
       <c r="I19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="16">
         <f>D$3*$N19+D$11*$N20+D$19*$N21+D$27*$N22+D$35*$N23+D$43*$N24+D$51*$N25</f>
         <v>0.5246688213633488</v>
       </c>
@@ -7617,7 +7617,7 @@
       <c r="I27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="16">
         <f>D$3*$N27+D$11*$N28+D$19*$N29+D$27*$N30+D$35*$N31+D$43*$N32+D$51*$N33</f>
         <v>0.58703695595358329</v>
       </c>
@@ -7787,7 +7787,7 @@
       <c r="I35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="16">
         <f>D$3*$N35+D$11*$N36+D$19*$N37+D$27*$N38+D$35*$N39+D$43*$N40+D$51*$N41</f>
         <v>0.74582058529893613</v>
       </c>
@@ -7957,7 +7957,7 @@
       <c r="I43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="16">
         <f>D$3*$N43+D$11*$N44+D$19*$N45+D$27*$N46+D$35*$N47+D$43*$N48+D$51*$N49</f>
         <v>0.9024446264116226</v>
       </c>
@@ -8127,7 +8127,7 @@
       <c r="I51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="16">
         <f>D$3*$N51+D$11*$N52+D$19*$N53+D$27*$N54+D$35*$N55+D$43*$N56+D$51*$N57</f>
         <v>0.97541637142307114</v>
       </c>
@@ -8265,6 +8265,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="G19:G24"/>
     <mergeCell ref="A51:A56"/>
     <mergeCell ref="G51:G56"/>
     <mergeCell ref="A27:A32"/>
@@ -8273,12 +8279,6 @@
     <mergeCell ref="G35:G40"/>
     <mergeCell ref="A43:A48"/>
     <mergeCell ref="G43:G48"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="G19:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
